--- a/production/data/poets_cities.xlsx
+++ b/production/data/poets_cities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="poets" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="265">
   <si>
     <t>Melanippides</t>
   </si>
@@ -1274,7 +1274,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1282,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I253"/>
+  <dimension ref="A1:I254"/>
   <sheetViews>
-    <sheetView topLeftCell="A171" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F255" sqref="F255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6411,6 +6411,24 @@
       </c>
       <c r="F253">
         <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>156</v>
+      </c>
+      <c r="B254" s="2">
+        <f>VLOOKUP(A254,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>114</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254">
+        <v>33</v>
+      </c>
+      <c r="F254">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6576,8 +6594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/production/data/poets_cities.xlsx
+++ b/production/data/poets_cities.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="264">
   <si>
     <t>Melanippides</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t xml:space="preserve">Telesilla </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ion </t>
   </si>
   <si>
     <t>Archelaos</t>
@@ -1274,7 +1271,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1282,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I254"/>
+  <dimension ref="A1:I252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F255" sqref="F255"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1318,7 +1315,7 @@
         <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1367,38 +1364,37 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2">
-        <v>36</v>
+        <f>VLOOKUP(A4,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="B5" s="2">
-        <v>35</v>
+        <f>VLOOKUP(A5,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>87</v>
@@ -1411,120 +1407,121 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="B6" s="2">
-        <v>35</v>
+        <f>VLOOKUP(A6,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="B7" s="2">
-        <v>35</v>
+        <f>VLOOKUP(A7,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2">
-        <v>35</v>
+        <f>VLOOKUP(A8,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2">
-        <v>8</v>
+        <f>VLOOKUP(A9,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10">
-        <v>56</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -1533,26 +1530,26 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>87</v>
@@ -1565,38 +1562,38 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>87</v>
@@ -1609,63 +1606,63 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="B15" s="2">
-        <v>9</v>
+        <f>VLOOKUP(A15,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="2">
+        <f>VLOOKUP(A16,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>238</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2">
-        <v>38</v>
+        <f>VLOOKUP(A17,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -1675,16 +1672,14 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="B18" s="2">
-        <v>10</v>
+        <f>VLOOKUP(A18,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>85</v>
@@ -1697,16 +1692,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>85</v>
@@ -1719,16 +1714,17 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="B20" s="2">
-        <v>11</v>
+        <f>VLOOKUP(A20,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -1741,19 +1737,17 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2">
-        <v>11</v>
+        <f>VLOOKUP(A21,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>16</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -1762,20 +1756,17 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="2">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
+      <c r="A22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1784,17 +1775,21 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23">
-        <v>58</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>3</v>
+      <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="2">
+        <f>VLOOKUP(A23,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1804,63 +1799,60 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="B24" s="2">
-        <v>4</v>
+        <f>VLOOKUP(A24,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="B25" s="2">
-        <v>27</v>
+        <f>VLOOKUP(A25,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="D25">
-        <v>15</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="B26" s="2">
-        <v>41</v>
+        <f>VLOOKUP(A26,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
       <c r="D26">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -1869,55 +1861,60 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>1</v>
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="2">
+        <f>VLOOKUP(A27,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28">
-        <v>60</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>3</v>
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="2">
+        <f>VLOOKUP(A28,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29">
-        <v>61</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>7</v>
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1926,77 +1923,81 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30">
-        <v>61</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>3</v>
+      <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="2">
+        <f>VLOOKUP(A30,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>188</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>45</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="B31" s="2">
-        <v>21</v>
+        <f>VLOOKUP(A31,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>62</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="2">
+        <f>VLOOKUP(A32,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>62</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>3</v>
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="2">
+        <f>VLOOKUP(A33,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>242</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -2005,58 +2006,57 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34">
-        <v>64</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>5</v>
+      <c r="A34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="2">
+        <f>VLOOKUP(A34,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="B35" s="2">
-        <v>43</v>
+        <f>VLOOKUP(A35,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="D35">
-        <v>19</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>87</v>
@@ -2068,17 +2068,20 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37">
-        <v>65</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>106</v>
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="2">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
       </c>
       <c r="D37">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2088,38 +2091,38 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B38" s="2">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>87</v>
@@ -2132,16 +2135,16 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B40">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2150,30 +2153,33 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41">
-        <v>67</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>3</v>
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B42" s="2">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -2192,60 +2198,65 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B43" s="2">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="B44" s="2">
-        <v>42</v>
+        <f>VLOOKUP(A44,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45">
-        <v>68</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>3</v>
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="2">
+        <f>VLOOKUP(A45,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>219</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2255,184 +2266,194 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="B46" s="2">
-        <v>12</v>
+        <f>VLOOKUP(A46,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47">
-        <v>69</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>111</v>
+      <c r="A47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="2">
+        <f>VLOOKUP(A47,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
       </c>
       <c r="D47">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48">
+      <c r="A48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="2">
+        <f>VLOOKUP(A48,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="2">
+        <f>VLOOKUP(A49,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="2">
+        <f>VLOOKUP(A50,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="2">
+        <f>VLOOKUP(A51,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51">
         <v>70</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49">
-        <v>71</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49">
-        <v>32</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50">
-        <v>72</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50">
-        <v>41</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51">
-        <v>55</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51">
-        <v>6</v>
-      </c>
       <c r="F51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52">
-        <v>55</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>3</v>
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="2">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53">
-        <v>73</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>3</v>
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="2">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="B54" s="2">
-        <v>13</v>
+        <f>VLOOKUP(A54,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B55" s="2">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
         <v>51</v>
       </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
       <c r="D55">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>85</v>
@@ -2444,52 +2465,50 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="B56" s="2">
-        <v>51</v>
+        <f>VLOOKUP(A56,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="2">
-        <v>51</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="A57" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57">
+        <v>58</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="F57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B58" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
@@ -2506,38 +2525,45 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59">
-        <v>75</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>74</v>
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="2">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60">
-        <v>76</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>42</v>
+      <c r="A60" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="2">
+        <f>VLOOKUP(A60,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>104</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2546,16 +2572,17 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="B61" s="2">
-        <v>46</v>
+        <f>VLOOKUP(A61,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>214</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>85</v>
@@ -2567,16 +2594,17 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="B62" s="2">
-        <v>20</v>
+        <f>VLOOKUP(A62,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>85</v>
@@ -2588,37 +2616,39 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="B63" s="2">
-        <v>20</v>
+        <f>VLOOKUP(A63,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D63">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="B64" s="2">
+        <f>VLOOKUP(A64,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="C64" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64">
         <v>47</v>
-      </c>
-      <c r="C64" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64">
-        <v>31</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>85</v>
@@ -2631,19 +2661,17 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="B65" s="2">
-        <v>47</v>
+        <f>VLOOKUP(A65,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -2652,41 +2680,38 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B66" s="2">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="2">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>7</v>
+      <c r="A67" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67">
+        <v>59</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>6</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2695,40 +2720,39 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2">
-        <v>3</v>
+        <f>VLOOKUP(A68,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="D68">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2">
-        <v>3</v>
+        <f>VLOOKUP(A69,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>59</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
       </c>
       <c r="D69">
         <v>2</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F69">
         <v>3</v>
@@ -2737,35 +2761,37 @@
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70">
-        <v>52</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>92</v>
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="2">
+        <f>VLOOKUP(A70,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C70" t="s">
+        <v>243</v>
       </c>
       <c r="D70">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71">
-        <v>52</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>129</v>
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="2">
+        <f>VLOOKUP(A71,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="C71" t="s">
+        <v>135</v>
       </c>
       <c r="D71">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F71">
         <v>3</v>
@@ -2775,38 +2801,34 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B72">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="2">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1</v>
+      <c r="A73" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73">
+        <v>61</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -2816,47 +2838,42 @@
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="2">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2</v>
+      <c r="A74" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74">
+        <v>61</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>33</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" s="1"/>
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B75" s="2">
-        <f>1</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="3"/>
@@ -2864,16 +2881,16 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="3" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B76">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="3">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2882,63 +2899,62 @@
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="2">
-        <v>48</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="A77" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77">
+        <v>62</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="F77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78">
-        <v>53</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="A78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="2">
+        <f>VLOOKUP(A78,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>109</v>
+      </c>
+      <c r="C78" t="s">
         <v>3</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
+      <c r="E78" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="B79" s="2">
-        <v>49</v>
+        <f>VLOOKUP(A79,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F79">
         <v>3</v>
@@ -2946,41 +2962,40 @@
       <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="4" t="s">
-        <v>69</v>
+      <c r="A80" t="s">
+        <v>153</v>
       </c>
       <c r="B80" s="2">
-        <v>49</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>56</v>
+        <f>VLOOKUP(A80,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>111</v>
+      </c>
+      <c r="C80" t="s">
+        <v>227</v>
       </c>
       <c r="D80">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="B81" s="2">
-        <v>15</v>
+        <f>VLOOKUP(A81,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>111</v>
       </c>
       <c r="C81" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="F81">
         <v>3</v>
@@ -2988,98 +3003,103 @@
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B82" s="2">
-        <v>16</v>
-      </c>
-      <c r="C82" t="s">
-        <v>3</v>
+      <c r="A82" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82">
+        <v>64</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="F82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B83" s="2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" s="2">
+        <v>43</v>
+      </c>
+      <c r="C84" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84">
+        <v>30</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B84">
-        <v>78</v>
-      </c>
-      <c r="C84" s="3"/>
       <c r="F84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" s="2">
-        <v>17</v>
-      </c>
-      <c r="C85" t="s">
-        <v>3</v>
+      <c r="A85" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85">
+        <v>65</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B86">
-        <v>89</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>3</v>
+      <c r="A86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" s="2">
+        <v>44</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3089,119 +3109,114 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B87" s="2">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D87">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="B88" s="2">
-        <v>24</v>
+        <f>VLOOKUP(A88,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>112</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="D88">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="B89" s="2">
-        <v>24</v>
+        <f>VLOOKUP(A89,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>112</v>
       </c>
       <c r="C89" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D89">
-        <v>2</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="F89">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" t="s">
-        <v>34</v>
-      </c>
-      <c r="B90" s="2">
-        <v>24</v>
-      </c>
-      <c r="C90" t="s">
-        <v>77</v>
+      <c r="A90" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90">
+        <v>66</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>18</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="B91" s="2">
-        <v>24</v>
+        <f>VLOOKUP(A91,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>113</v>
       </c>
       <c r="C91" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="D91">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F91">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="B92" s="2">
-        <v>24</v>
+        <f>VLOOKUP(A92,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D92">
-        <v>20</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="F92">
         <v>3</v>
@@ -3209,16 +3224,17 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="B93" s="2">
-        <v>25</v>
+        <f>VLOOKUP(A93,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>85</v>
@@ -3229,56 +3245,52 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="B94" s="2">
-        <v>5</v>
+        <f>VLOOKUP(A94,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>114</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="D94">
-        <v>8</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="B95" s="2">
-        <v>5</v>
+        <f>VLOOKUP(A95,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>114</v>
       </c>
       <c r="C95" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B96">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -3286,16 +3298,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B97" s="2">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>85</v>
@@ -3306,16 +3318,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B98" s="2">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>87</v>
@@ -3325,37 +3337,37 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B99">
-        <v>83</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>33</v>
+      <c r="A99" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99" s="2">
+        <v>42</v>
+      </c>
+      <c r="C99" t="s">
+        <v>74</v>
       </c>
       <c r="D99">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="2">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>5</v>
+      <c r="A100" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100">
+        <v>68</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D100">
-        <v>3</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -3363,50 +3375,48 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B101" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102" s="2">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s">
-        <v>27</v>
+      <c r="A102" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102">
+        <v>69</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="D102">
-        <v>5</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F102">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="B103" s="2">
-        <v>2</v>
+        <f>VLOOKUP(A103,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>115</v>
       </c>
       <c r="C103" t="s">
         <v>3</v>
@@ -3415,35 +3425,36 @@
         <v>2</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F103">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B104">
-        <v>84</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>124</v>
+      <c r="A104" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" s="2">
+        <f>VLOOKUP(A104,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>255</v>
       </c>
       <c r="D104">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B105">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>3</v>
@@ -3457,33 +3468,37 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B106">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="D106">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B107">
-        <v>54</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>136</v>
+      <c r="A107" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" s="2">
+        <f>VLOOKUP(A107,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="C107" t="s">
+        <v>36</v>
       </c>
       <c r="D107">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -3491,119 +3506,111 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="B108" s="2">
-        <v>7</v>
+        <f>VLOOKUP(A108,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>116</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="D108">
-        <v>12</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="B109" s="2">
-        <v>7</v>
+        <f>VLOOKUP(A109,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>117</v>
       </c>
       <c r="C109" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="B110" s="2">
-        <v>7</v>
+        <f>VLOOKUP(A110,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="D110">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F110">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="B111" s="2">
+        <f>VLOOKUP(A111,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>117</v>
+      </c>
+      <c r="C111" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111">
+        <v>41</v>
+      </c>
+      <c r="F111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112">
+        <v>72</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D112">
+        <v>41</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B113">
+        <v>55</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C111" t="s">
-        <v>75</v>
-      </c>
-      <c r="D111">
-        <v>14</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="2">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
-        <v>42</v>
-      </c>
-      <c r="D112">
-        <v>15</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" t="s">
-        <v>32</v>
-      </c>
-      <c r="B113" s="2">
-        <v>22</v>
-      </c>
-      <c r="C113" t="s">
-        <v>76</v>
-      </c>
       <c r="D113">
-        <v>17</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -3611,36 +3618,33 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="3" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="B114">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" t="s">
-        <v>64</v>
-      </c>
-      <c r="B115" s="2">
-        <v>45</v>
-      </c>
-      <c r="C115" t="s">
-        <v>5</v>
+      <c r="A115" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>73</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>3</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -3648,16 +3652,16 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B116" s="2">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D116">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>87</v>
@@ -3668,16 +3672,16 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B117" s="2">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D117">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>85</v>
@@ -3688,30 +3692,30 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B118" s="2">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C118" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D118">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B119" s="2">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C119" t="s">
         <v>3</v>
@@ -3728,102 +3732,96 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B120" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B121">
+        <v>75</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D120">
+      <c r="D121">
         <v>10</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" s="2">
-        <v>6</v>
-      </c>
-      <c r="C121" t="s">
-        <v>36</v>
-      </c>
-      <c r="D121">
-        <v>11</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="F121">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G121" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" t="s">
-        <v>137</v>
-      </c>
-      <c r="B122" s="2">
-        <f>VLOOKUP(A122,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>92</v>
-      </c>
-      <c r="C122" t="s">
-        <v>10</v>
+      <c r="A122" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B122">
+        <v>76</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D122">
-        <v>8</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="F122">
         <v>1</v>
-      </c>
-      <c r="G122" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="B123" s="2">
-        <f>VLOOKUP(A123,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="C123" t="s">
-        <v>218</v>
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F123">
         <v>1</v>
-      </c>
-      <c r="G123" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="B124" s="2">
-        <f>VLOOKUP(A124,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="C124" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="D124">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>85</v>
@@ -3834,74 +3832,77 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="B125" s="2">
-        <f>VLOOKUP(A125,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="C125" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G125" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="B126" s="2">
-        <f>VLOOKUP(A126,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C126" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="D126">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F126">
         <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="B127" s="2">
-        <f>VLOOKUP(A127,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C127" t="s">
-        <v>214</v>
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127" t="s">
-        <v>213</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2">
         <f>VLOOKUP(A128,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C128" t="s">
         <v>3</v>
@@ -3914,24 +3915,21 @@
       </c>
       <c r="F128">
         <v>1</v>
-      </c>
-      <c r="G128" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B129" s="2">
         <f>VLOOKUP(A129,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C129" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="D129">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>85</v>
@@ -3942,38 +3940,34 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B130" s="2">
         <f>VLOOKUP(A130,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C130" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>45</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="B131" s="2">
-        <f>VLOOKUP(A131,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C131" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="D131">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>85</v>
@@ -3984,17 +3978,17 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B132" s="2">
         <f>VLOOKUP(A132,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C132" t="s">
-        <v>220</v>
+        <v>67</v>
       </c>
       <c r="D132">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>85</v>
@@ -4005,59 +3999,52 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B133" s="2">
         <f>VLOOKUP(A133,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D133">
-        <v>11</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B134" s="2">
         <f>VLOOKUP(A134,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C134" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D134">
-        <v>2</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>149</v>
+        <v>6</v>
       </c>
       <c r="B135" s="2">
-        <f>VLOOKUP(A135,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>85</v>
@@ -4068,32 +4055,33 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>149</v>
+        <v>6</v>
       </c>
       <c r="B136" s="2">
-        <f>VLOOKUP(A136,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>215</v>
+        <v>73</v>
       </c>
       <c r="D136">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G136" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="B137" s="2">
-        <f>VLOOKUP(A137,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="C137" t="s">
         <v>3</v>
@@ -4102,160 +4090,141 @@
         <v>2</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" t="s">
-        <v>151</v>
-      </c>
-      <c r="B138" s="2">
-        <f>VLOOKUP(A138,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>106</v>
-      </c>
-      <c r="C138" t="s">
-        <v>67</v>
+      <c r="A138" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B138">
+        <v>52</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D138">
-        <v>31</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="F138">
         <v>1</v>
       </c>
-      <c r="G138" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" t="s">
-        <v>152</v>
-      </c>
-      <c r="B139" s="2">
-        <f>VLOOKUP(A139,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>107</v>
-      </c>
-      <c r="C139" t="s">
-        <v>190</v>
+      <c r="A139" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B139">
+        <v>52</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D139">
-        <v>47</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G139" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" t="s">
-        <v>153</v>
-      </c>
-      <c r="B140" s="2">
-        <f>VLOOKUP(A140,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>109</v>
-      </c>
-      <c r="C140" t="s">
-        <v>3</v>
+      <c r="A140" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B140">
+        <v>52</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="D140">
-        <v>2</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="B141" s="2">
-        <f>VLOOKUP(A141,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>111</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F141">
         <v>1</v>
-      </c>
-      <c r="G141" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="B142" s="2">
-        <f>VLOOKUP(A142,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>112</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="B143" s="2">
-        <f>VLOOKUP(A143,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>113</v>
+        <f>1</f>
+        <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="D143">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" t="s">
-        <v>156</v>
-      </c>
-      <c r="B144" s="2">
-        <f>VLOOKUP(A144,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>114</v>
-      </c>
-      <c r="C144" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144">
-        <v>2</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>85</v>
+      <c r="A144" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B144">
+        <v>91</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -4263,11 +4232,10 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="B145" s="2">
-        <f>VLOOKUP(A145,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="C145" t="s">
         <v>3</v>
@@ -4283,21 +4251,17 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" t="s">
-        <v>158</v>
-      </c>
-      <c r="B146" s="2">
-        <f>VLOOKUP(A146,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>116</v>
-      </c>
-      <c r="C146" t="s">
-        <v>36</v>
+      <c r="A146" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B146">
+        <v>53</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D146">
-        <v>11</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -4305,17 +4269,17 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B147" s="2">
         <f>VLOOKUP(A147,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C147" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D147">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>85</v>
@@ -4326,53 +4290,55 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B148" s="2">
         <f>VLOOKUP(A148,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C148" t="s">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="D148">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="B149" s="2">
         <f>VLOOKUP(A149,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="D149">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F149">
         <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="B150" s="2">
-        <f>VLOOKUP(A150,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="C150" t="s">
         <v>3</v>
@@ -4381,49 +4347,45 @@
         <v>2</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" t="s">
-        <v>161</v>
+      <c r="A151" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B151" s="2">
-        <f>VLOOKUP(A151,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>120</v>
-      </c>
-      <c r="C151" t="s">
-        <v>223</v>
+        <v>49</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D151">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F151">
-        <v>1</v>
-      </c>
-      <c r="G151" t="s">
-        <v>222</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B152" s="2">
         <f>VLOOKUP(A152,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C152" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D152">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>85</v>
@@ -4434,101 +4396,89 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B153" s="2">
-        <f>VLOOKUP(A153,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="C153" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D153">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G153" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="B154" s="2">
-        <f>VLOOKUP(A154,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="D154">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="B155" s="2">
-        <f>VLOOKUP(A155,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="C155" t="s">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155" t="s">
-        <v>216</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" t="s">
-        <v>164</v>
-      </c>
-      <c r="B156" s="2">
-        <f>VLOOKUP(A156,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>123</v>
-      </c>
-      <c r="C156" t="s">
-        <v>192</v>
-      </c>
-      <c r="D156">
-        <v>52</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A156" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B156">
+        <v>78</v>
+      </c>
+      <c r="C156" s="3"/>
       <c r="F156">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B157" s="2">
         <f>VLOOKUP(A157,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
         <v>124</v>
       </c>
       <c r="C157" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D157">
         <v>53</v>
@@ -4542,41 +4492,36 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="B158" s="2">
-        <f>VLOOKUP(A158,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="C158" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D158">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" t="s">
-        <v>168</v>
-      </c>
-      <c r="B159" s="2">
-        <f>VLOOKUP(A159,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>127</v>
-      </c>
-      <c r="C159" t="s">
-        <v>12</v>
+      <c r="A159" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B159">
+        <v>89</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D159">
-        <v>9</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -4584,17 +4529,17 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B160" s="2">
         <f>VLOOKUP(A160,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C160" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D160">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>85</v>
@@ -4605,38 +4550,34 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B161" s="2">
         <f>VLOOKUP(A161,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C161" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="D161">
-        <v>55</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="B162" s="2">
-        <f>VLOOKUP(A162,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="C162" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="D162">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>85</v>
@@ -4647,122 +4588,116 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="B163" s="2">
-        <f>VLOOKUP(A163,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="C163" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D163">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="B164" s="2">
-        <f>VLOOKUP(A164,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="C164" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="B165" s="2">
-        <f>VLOOKUP(A165,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="C165" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D165">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="B166" s="2">
-        <f>VLOOKUP(A166,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="C166" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D166">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="B167" s="2">
-        <f>VLOOKUP(A167,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="C167" t="s">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="D167">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="B168" s="2">
-        <f>VLOOKUP(A168,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="C168" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>85</v>
@@ -4773,17 +4708,17 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2">
         <f>VLOOKUP(A169,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C169" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>85</v>
@@ -4794,17 +4729,16 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="B170" s="2">
-        <f>VLOOKUP(A170,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D170">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>85</v>
@@ -4815,41 +4749,39 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="B171" s="2">
-        <f>VLOOKUP(A171,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F171">
+        <v>3</v>
+      </c>
+      <c r="G171" t="s">
         <v>229</v>
       </c>
-      <c r="D171">
-        <v>58</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F171">
-        <v>1</v>
-      </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" t="s">
-        <v>179</v>
-      </c>
-      <c r="B172" s="2">
-        <f>VLOOKUP(A172,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>139</v>
-      </c>
-      <c r="C172" t="s">
-        <v>76</v>
+      <c r="A172" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B172">
+        <v>82</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D172">
-        <v>17</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -4857,59 +4789,60 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="B173" s="2">
-        <f>VLOOKUP(A173,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C173" t="s">
-        <v>217</v>
+        <v>40</v>
+      </c>
+      <c r="D173">
+        <v>22</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F173">
         <v>1</v>
-      </c>
-      <c r="G173" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="B174" s="2">
-        <f>VLOOKUP(A174,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>232</v>
+        <v>3</v>
       </c>
       <c r="D174">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G174" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B175" s="2">
         <f>VLOOKUP(A175,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C175" t="s">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="D175">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>85</v>
@@ -4920,65 +4853,55 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B176" s="2">
         <f>VLOOKUP(A176,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C176" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="D176">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F176">
         <v>1</v>
-      </c>
-      <c r="G176" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B177" s="2">
         <f>VLOOKUP(A177,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C177" t="s">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="D177">
-        <v>61</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" t="s">
-        <v>185</v>
-      </c>
-      <c r="B178" s="2">
-        <f>VLOOKUP(A178,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>145</v>
-      </c>
-      <c r="C178" t="s">
-        <v>74</v>
+      <c r="A178" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B178">
+        <v>83</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D178">
-        <v>10</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -4986,17 +4909,16 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>185</v>
+        <v>4</v>
       </c>
       <c r="B179" s="2">
-        <f>VLOOKUP(A179,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D179">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>85</v>
@@ -5007,53 +4929,53 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>185</v>
+        <v>4</v>
       </c>
       <c r="B180" s="2">
-        <f>VLOOKUP(A180,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G180" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="B181" s="2">
-        <f>VLOOKUP(A181,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>187</v>
+        <v>4</v>
       </c>
       <c r="B182" s="2">
-        <f>VLOOKUP(A182,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="C182" t="s">
         <v>3</v>
@@ -5062,27 +4984,25 @@
         <v>2</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F182">
-        <v>1</v>
-      </c>
-      <c r="G182" t="s">
-        <v>213</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B183" s="2">
-        <v>148</v>
+        <f>VLOOKUP(A183,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>131</v>
       </c>
       <c r="C183" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="D183">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>85</v>
@@ -5093,143 +5013,137 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="B184" s="2">
         <f>VLOOKUP(A184,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="C184" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="D184">
-        <v>39</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F184">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="B185" s="2">
         <f>VLOOKUP(A185,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="C185" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="D185">
-        <v>48</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="F185">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B186" s="2">
         <f>VLOOKUP(A186,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C186" t="s">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="D186">
-        <v>21</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F186">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B187" s="2">
         <f>VLOOKUP(A187,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C187" t="s">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="D187">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G187" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B188" s="2">
         <f>VLOOKUP(A188,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C188" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D188">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F188">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B189" s="2">
         <f>VLOOKUP(A189,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="C189" t="s">
-        <v>235</v>
+        <v>38</v>
+      </c>
+      <c r="D189">
+        <v>21</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F189">
-        <v>3</v>
-      </c>
-      <c r="G189" t="s">
-        <v>250</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="B190" s="2">
         <f>VLOOKUP(A190,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C190" t="s">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="D190">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="F190">
         <v>3</v>
@@ -5237,113 +5151,125 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="B191" s="2">
         <f>VLOOKUP(A191,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C191" t="s">
-        <v>239</v>
+        <v>123</v>
       </c>
       <c r="D191">
-        <v>65</v>
+        <v>42</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F191">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="B192" s="2">
         <f>VLOOKUP(A192,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C192" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F192">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G192" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B193" s="2">
         <f>VLOOKUP(A193,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>236</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="F193">
         <v>3</v>
+      </c>
+      <c r="G193" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B194" s="2">
         <f>VLOOKUP(A194,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C194" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="D194">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F194">
-        <v>3</v>
-      </c>
-      <c r="G194" t="s">
-        <v>213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B195" s="2">
         <f>VLOOKUP(A195,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C195" t="s">
-        <v>240</v>
+        <v>3</v>
       </c>
       <c r="D195">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="F195">
         <v>3</v>
       </c>
       <c r="G195" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B196" s="2">
         <f>VLOOKUP(A196,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C196" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D196">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F196">
         <v>3</v>
@@ -5351,170 +5277,172 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B197" s="2">
         <f>VLOOKUP(A197,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C197" t="s">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="D197">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="F197">
         <v>3</v>
       </c>
       <c r="G197" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B198" s="2">
         <f>VLOOKUP(A198,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C198" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="D198">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F198">
         <v>3</v>
+      </c>
+      <c r="G198" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B199" s="2">
         <f>VLOOKUP(A199,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C199" t="s">
-        <v>242</v>
-      </c>
-      <c r="D199" t="e">
-        <v>#N/A</v>
+        <v>258</v>
+      </c>
+      <c r="D199">
+        <v>79</v>
       </c>
       <c r="F199">
         <v>3</v>
-      </c>
-      <c r="G199" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B200" s="2">
         <f>VLOOKUP(A200,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C200" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="D200">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F200">
         <v>3</v>
-      </c>
-      <c r="G200" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B201" s="2">
         <f>VLOOKUP(A201,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C201" t="s">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c r="D201">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="F201">
         <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" t="s">
-        <v>143</v>
-      </c>
-      <c r="B202" s="2">
-        <f>VLOOKUP(A202,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>98</v>
-      </c>
-      <c r="C202" t="s">
-        <v>252</v>
+      <c r="A202" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B202">
+        <v>84</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="D202">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F202">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="B203" s="2">
         <f>VLOOKUP(A203,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C203" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="D203">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F203">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="B204" s="2">
         <f>VLOOKUP(A204,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C204" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="D204">
-        <v>30</v>
+        <v>63</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="B205" s="2">
         <f>VLOOKUP(A205,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
-      </c>
-      <c r="C205" t="s">
-        <v>27</v>
+        <v>136</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F205">
         <v>3</v>
@@ -5522,17 +5450,16 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="B206" s="2">
-        <f>VLOOKUP(A206,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C206" t="s">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="F206">
         <v>3</v>
@@ -5540,257 +5467,273 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="B207" s="2">
         <f>VLOOKUP(A207,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C207" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D207">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F207">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="B208" s="2">
         <f>VLOOKUP(A208,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C208" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D208">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F208">
         <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" t="s">
-        <v>152</v>
-      </c>
-      <c r="B209" s="2">
-        <f>VLOOKUP(A209,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>107</v>
-      </c>
-      <c r="C209" t="s">
-        <v>12</v>
+      <c r="A209" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B209">
+        <v>85</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D209">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F209">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" t="s">
-        <v>101</v>
-      </c>
-      <c r="B210" s="2">
-        <f>VLOOKUP(A210,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>59</v>
-      </c>
-      <c r="C210" t="s">
-        <v>3</v>
+      <c r="A210" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B210">
+        <v>86</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F210">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="B211" s="2">
         <f>VLOOKUP(A211,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="C211" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="D211">
-        <v>71</v>
+        <v>23</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F211">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="B212" s="2">
         <f>VLOOKUP(A212,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="C212" t="s">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="D212">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F212">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="B213" s="2">
         <f>VLOOKUP(A213,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C213" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D213">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B214" s="2">
         <f>VLOOKUP(A214,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C214" t="s">
-        <v>56</v>
+        <v>261</v>
       </c>
       <c r="D214">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="F214">
         <v>3</v>
+      </c>
+      <c r="G214" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B215" s="2">
         <f>VLOOKUP(A215,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="D215">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="F215">
         <v>3</v>
+      </c>
+      <c r="G215" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="B216" s="2">
         <f>VLOOKUP(A216,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C216" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F216">
-        <v>3</v>
-      </c>
-      <c r="G216" t="s">
-        <v>245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B217" s="2">
         <f>VLOOKUP(A217,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C217" t="s">
-        <v>255</v>
+        <v>3</v>
       </c>
       <c r="D217">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="F217">
         <v>3</v>
       </c>
-      <c r="G217" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" t="s">
-        <v>157</v>
-      </c>
-      <c r="B218" s="2">
-        <f>VLOOKUP(A218,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>115</v>
-      </c>
-      <c r="C218" t="s">
-        <v>256</v>
+      <c r="A218" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B218">
+        <v>54</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D218">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F218">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="B219" s="2">
-        <f>VLOOKUP(A219,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>236</v>
+        <v>14</v>
       </c>
       <c r="D219">
-        <v>75</v>
+        <v>12</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F219">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="B220" s="2">
-        <f>VLOOKUP(A220,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="D220">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F220">
         <v>3</v>
@@ -5798,17 +5741,19 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="B221" s="2">
-        <f>VLOOKUP(A221,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F221">
         <v>3</v>
@@ -5816,17 +5761,19 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="B222" s="2">
-        <f>VLOOKUP(A222,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F222">
         <v>3</v>
@@ -5834,242 +5781,258 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="B223" s="2">
-        <f>VLOOKUP(A223,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F223">
         <v>3</v>
+      </c>
+      <c r="G223" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="B224" s="2">
-        <f>VLOOKUP(A224,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C224" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F224">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B225" s="2">
         <f>VLOOKUP(A225,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C225" t="s">
-        <v>257</v>
-      </c>
-      <c r="D225">
-        <v>76</v>
+        <v>216</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F225">
-        <v>3</v>
-      </c>
-      <c r="G225" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B226" s="2">
         <f>VLOOKUP(A226,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C226" t="s">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F226">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B227" s="2">
         <f>VLOOKUP(A227,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C227" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D227">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F227">
         <v>3</v>
+      </c>
+      <c r="G227" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B228" s="2">
         <f>VLOOKUP(A228,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C228" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="D228">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F228">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G228" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B229" s="2">
         <f>VLOOKUP(A229,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C229" t="s">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="D229">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F229">
         <v>3</v>
-      </c>
-      <c r="G229" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B230" s="2">
         <f>VLOOKUP(A230,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C230" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
       <c r="D230">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F230">
         <v>3</v>
-      </c>
-      <c r="G230" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B231" s="2">
         <f>VLOOKUP(A231,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C231" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D231">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F231">
         <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" t="s">
-        <v>175</v>
-      </c>
-      <c r="B232" s="2">
-        <f>VLOOKUP(A232,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
-      </c>
-      <c r="C232" t="s">
-        <v>3</v>
+      <c r="A232" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B232">
+        <v>87</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F232">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B233" s="2">
         <f>VLOOKUP(A233,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C233" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D233">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F233">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="B234" s="2">
-        <f>VLOOKUP(A234,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="C234" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D234">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F234">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="B235" s="2">
-        <f>VLOOKUP(A235,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="C235" t="s">
-        <v>246</v>
+        <v>56</v>
       </c>
       <c r="D235">
-        <v>78</v>
+        <v>30</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F235">
         <v>3</v>
@@ -6077,35 +6040,38 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B236" s="2">
         <f>VLOOKUP(A236,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C236" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="D236">
-        <v>79</v>
+        <v>61</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F236">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="42">
       <c r="A237" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B237" s="2">
         <f>VLOOKUP(A237,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C237" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D237">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F237">
         <v>3</v>
@@ -6113,52 +6079,59 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="B238" s="2">
-        <f>VLOOKUP(A238,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="D238">
-        <v>81</v>
+        <v>9</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F238">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="B239" s="2">
-        <f>VLOOKUP(A239,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>136</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>196</v>
+        <v>6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F239">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="B240" s="2">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="D240">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F240">
         <v>3</v>
@@ -6166,17 +6139,19 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="B241" s="2">
-        <f>VLOOKUP(A241,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
-        <v>238</v>
+        <v>74</v>
       </c>
       <c r="D241">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F241">
         <v>3</v>
@@ -6184,167 +6159,187 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="B242" s="2">
-        <f>VLOOKUP(A242,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="D242">
-        <v>83</v>
+        <v>11</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="F242">
         <v>3</v>
+      </c>
+      <c r="G242" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B243" s="2">
         <f>VLOOKUP(A243,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C243" t="s">
-        <v>263</v>
+        <v>49</v>
       </c>
       <c r="D243">
-        <v>84</v>
+        <v>4</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F243">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B244" s="2">
         <f>VLOOKUP(A244,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C244" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F244">
-        <v>3</v>
-      </c>
-      <c r="G244" t="s">
-        <v>247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B245" s="2">
         <f>VLOOKUP(A245,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C245" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D245">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F245">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B246" s="2">
         <f>VLOOKUP(A246,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C246" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D246">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F246">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G246" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B247" s="2">
         <f>VLOOKUP(A247,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C247" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="D247">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F247">
         <v>3</v>
+      </c>
+      <c r="G247" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B248" s="2">
         <f>VLOOKUP(A248,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C248" t="s">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="D248">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F248">
         <v>3</v>
       </c>
       <c r="G248" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B249" s="2">
         <f>VLOOKUP(A249,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C249" t="s">
-        <v>248</v>
+        <v>3</v>
       </c>
       <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F249">
-        <v>3</v>
-      </c>
-      <c r="G249" t="s">
-        <v>213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B250" s="2">
         <f>VLOOKUP(A250,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C250" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D250">
         <v>49</v>
@@ -6353,22 +6348,22 @@
         <v>3</v>
       </c>
       <c r="G250" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B251" s="2">
         <f>VLOOKUP(A251,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C251" t="s">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="D251">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F251">
         <v>3</v>
@@ -6376,63 +6371,26 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B252" s="2">
-        <f>VLOOKUP(A252,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
         <v>148</v>
       </c>
       <c r="C252" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="D252">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F252">
-        <v>3</v>
-      </c>
-      <c r="G252" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
-      <c r="A253" t="s">
-        <v>212</v>
-      </c>
-      <c r="B253" s="2">
-        <f>VLOOKUP(A253,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>148</v>
-      </c>
-      <c r="C253" t="s">
-        <v>233</v>
-      </c>
-      <c r="D253">
-        <v>64</v>
-      </c>
-      <c r="F253">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
-      <c r="A254" t="s">
-        <v>156</v>
-      </c>
-      <c r="B254" s="2">
-        <f>VLOOKUP(A254,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>114</v>
-      </c>
-      <c r="C254" t="s">
-        <v>2</v>
-      </c>
-      <c r="D254">
-        <v>33</v>
-      </c>
-      <c r="F254">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G119">
+  <sortState ref="A2:F254">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6826,7 +6784,7 @@
     </row>
     <row r="26" spans="1:2" ht="42">
       <c r="A26" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B26" s="6">
         <f t="shared" si="0"/>
@@ -6923,7 +6881,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" s="2">
         <v>38</v>
@@ -6931,7 +6889,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2">
         <v>39</v>
@@ -6939,7 +6897,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="2">
         <v>40</v>
@@ -6947,7 +6905,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40" s="2">
         <v>41</v>
@@ -6955,7 +6913,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B41" s="2">
         <v>42</v>
@@ -6963,7 +6921,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="2">
         <v>43</v>
@@ -6971,7 +6929,7 @@
     </row>
     <row r="43" spans="1:2" ht="28">
       <c r="A43" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B43" s="2">
         <v>44</v>
@@ -6979,7 +6937,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B44" s="6">
         <v>45</v>
@@ -6987,7 +6945,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" s="6">
         <v>46</v>
@@ -6995,7 +6953,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B46" s="6">
         <v>47</v>
@@ -7003,7 +6961,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B47" s="6">
         <v>48</v>
@@ -7011,7 +6969,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B48" s="6">
         <v>49</v>
@@ -7019,7 +6977,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B49" s="6">
         <v>50</v>
@@ -7027,7 +6985,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B50" s="6">
         <v>51</v>
@@ -7035,7 +6993,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B51" s="6">
         <v>52</v>
@@ -7043,7 +7001,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B52" s="6">
         <v>53</v>
@@ -7051,7 +7009,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B53" s="6">
         <v>54</v>
@@ -7059,7 +7017,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B54" s="6">
         <v>55</v>
@@ -7067,7 +7025,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B55" s="6">
         <v>56</v>
@@ -7075,7 +7033,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B56" s="6">
         <v>57</v>
@@ -7083,7 +7041,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B57" s="6">
         <v>58</v>
@@ -7091,7 +7049,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B58" s="6">
         <v>59</v>
@@ -7099,7 +7057,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B59" s="6">
         <v>60</v>
@@ -7107,7 +7065,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B60" s="6">
         <v>61</v>
@@ -7115,7 +7073,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B61" s="6">
         <v>63</v>
@@ -7123,7 +7081,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B62" s="6">
         <v>64</v>
@@ -7131,7 +7089,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B63" s="6">
         <v>65</v>
@@ -7139,7 +7097,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B64" s="6">
         <v>66</v>
@@ -7147,7 +7105,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B65" s="6">
         <v>67</v>
@@ -7155,7 +7113,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B66" s="6">
         <v>68</v>
@@ -7163,7 +7121,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B67" s="6">
         <v>69</v>
@@ -7171,7 +7129,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B68" s="6">
         <v>70</v>
@@ -7179,7 +7137,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B69" s="6">
         <v>71</v>
@@ -7187,7 +7145,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B70" s="6">
         <v>72</v>
@@ -7195,7 +7153,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B71" s="6">
         <v>73</v>
@@ -7203,7 +7161,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B72" s="6">
         <v>74</v>
@@ -7211,7 +7169,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B73" s="6">
         <v>75</v>
@@ -7219,7 +7177,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B74" s="6">
         <v>76</v>
@@ -7227,7 +7185,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B75" s="6">
         <v>77</v>
@@ -7235,7 +7193,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B76" s="6">
         <v>78</v>
@@ -7243,7 +7201,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B77" s="6">
         <v>79</v>
@@ -7251,7 +7209,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B78" s="6">
         <v>80</v>
@@ -7259,7 +7217,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B79" s="6">
         <v>81</v>
@@ -7267,7 +7225,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B80" s="6">
         <v>82</v>
@@ -7275,7 +7233,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B81" s="6">
         <v>83</v>
@@ -7283,7 +7241,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B82" s="6">
         <v>84</v>
@@ -7291,7 +7249,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B83" s="6">
         <v>85</v>
@@ -7328,7 +7286,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2">
         <v>92</v>
@@ -7336,7 +7294,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2">
         <v>93</v>
@@ -7360,7 +7318,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="2">
         <v>94</v>
@@ -7368,7 +7326,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2">
         <v>95</v>
@@ -7384,7 +7342,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="2">
         <v>96</v>
@@ -7392,7 +7350,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2">
         <v>56</v>
@@ -7400,7 +7358,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2">
         <v>97</v>
@@ -7416,7 +7374,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B13" s="2">
         <v>98</v>
@@ -7432,7 +7390,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="2">
         <v>23</v>
@@ -7448,7 +7406,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="2">
         <v>57</v>
@@ -7480,7 +7438,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="2">
         <v>99</v>
@@ -7488,7 +7446,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2">
         <v>100</v>
@@ -7504,7 +7462,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="2">
         <v>101</v>
@@ -7520,7 +7478,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" s="2">
         <v>102</v>
@@ -7528,7 +7486,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="2">
         <v>58</v>
@@ -7536,7 +7494,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="2">
         <v>103</v>
@@ -7560,7 +7518,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" s="2">
         <v>104</v>
@@ -7568,7 +7526,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B32" s="2">
         <v>105</v>
@@ -7576,7 +7534,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" s="2">
         <v>106</v>
@@ -7584,7 +7542,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="2">
         <v>107</v>
@@ -7600,7 +7558,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2">
         <v>59</v>
@@ -7608,7 +7566,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" s="2">
         <v>60</v>
@@ -7616,7 +7574,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2">
         <v>61</v>
@@ -7624,7 +7582,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B39" s="2">
         <v>109</v>
@@ -7632,7 +7590,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B40" s="2">
         <v>62</v>
@@ -7640,7 +7598,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41" s="2">
         <v>21</v>
@@ -7648,7 +7606,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" s="2">
         <v>63</v>
@@ -7656,7 +7614,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B43" s="2">
         <v>111</v>
@@ -7664,7 +7622,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B44" s="2">
         <v>64</v>
@@ -7680,7 +7638,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2">
         <v>65</v>
@@ -7688,7 +7646,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B47" s="2">
         <v>44</v>
@@ -7696,7 +7654,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B48" s="2">
         <v>112</v>
@@ -7704,7 +7662,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B49" s="2">
         <v>66</v>
@@ -7712,7 +7670,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" s="2">
         <v>113</v>
@@ -7720,7 +7678,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" s="2">
         <v>114</v>
@@ -7728,7 +7686,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2">
         <v>67</v>
@@ -7744,7 +7702,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2">
         <v>68</v>
@@ -7760,7 +7718,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2">
         <v>69</v>
@@ -7768,7 +7726,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B57" s="2">
         <v>115</v>
@@ -7776,7 +7734,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2">
         <v>70</v>
@@ -7784,7 +7742,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2">
         <v>71</v>
@@ -7792,7 +7750,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" s="2">
         <v>116</v>
@@ -7800,7 +7758,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B61" s="2">
         <v>117</v>
@@ -7808,7 +7766,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2">
         <v>118</v>
@@ -7816,7 +7774,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B63" s="2">
         <v>55</v>
@@ -7824,7 +7782,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B64" s="2">
         <v>72</v>
@@ -7832,7 +7790,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2">
         <v>73</v>
@@ -7840,7 +7798,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B66" s="2">
         <v>74</v>
@@ -7872,7 +7830,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2">
         <v>75</v>
@@ -7880,7 +7838,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2">
         <v>76</v>
@@ -7912,7 +7870,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B75" s="2">
         <v>119</v>
@@ -7920,7 +7878,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B76" s="2">
         <v>120</v>
@@ -7936,7 +7894,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B78" s="2">
         <v>121</v>
@@ -7944,7 +7902,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B79" s="2">
         <v>77</v>
@@ -8000,7 +7958,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B86" s="2">
         <v>122</v>
@@ -8016,7 +7974,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B88" s="2">
         <v>123</v>
@@ -8048,7 +8006,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B92" s="2">
         <v>78</v>
@@ -8056,7 +8014,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B93" s="2">
         <v>124</v>
@@ -8064,7 +8022,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B94" s="2">
         <v>125</v>
@@ -8072,7 +8030,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B95" s="2">
         <v>79</v>
@@ -8088,7 +8046,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2">
         <v>89</v>
@@ -8096,7 +8054,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B98" s="2">
         <v>126</v>
@@ -8120,7 +8078,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B101" s="2">
         <v>127</v>
@@ -8128,7 +8086,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B102" s="2">
         <v>81</v>
@@ -8144,7 +8102,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2">
         <v>82</v>
@@ -8160,7 +8118,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B106" s="2">
         <v>128</v>
@@ -8168,7 +8126,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B107" s="2">
         <v>129</v>
@@ -8176,7 +8134,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2">
         <v>83</v>
@@ -8192,7 +8150,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B110" s="2">
         <v>131</v>
@@ -8200,7 +8158,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B111" s="2">
         <v>132</v>
@@ -8208,7 +8166,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B112" s="2">
         <v>133</v>
@@ -8216,7 +8174,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B113" s="2">
         <v>134</v>
@@ -8224,7 +8182,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B114" s="2">
         <v>135</v>
@@ -8232,7 +8190,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B115" s="2">
         <v>84</v>
@@ -8240,7 +8198,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B116" s="2">
         <v>136</v>
@@ -8248,7 +8206,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B117" s="2">
         <v>137</v>
@@ -8256,7 +8214,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2">
         <v>85</v>
@@ -8264,7 +8222,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2">
         <v>86</v>
@@ -8272,7 +8230,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B120" s="2">
         <v>138</v>
@@ -8280,7 +8238,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B121" s="2">
         <v>139</v>
@@ -8288,7 +8246,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B122" s="2">
         <v>54</v>
@@ -8312,7 +8270,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B125" s="2">
         <v>141</v>
@@ -8320,7 +8278,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B126" s="2">
         <v>142</v>
@@ -8328,7 +8286,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2">
         <v>87</v>
@@ -8336,7 +8294,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B128" s="2">
         <v>143</v>
@@ -8352,7 +8310,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B130" s="2">
         <v>144</v>
@@ -8360,7 +8318,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B131" s="2">
         <v>88</v>
@@ -8376,7 +8334,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B133" s="2">
         <v>146</v>
@@ -8384,7 +8342,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B134" s="2">
         <v>145</v>
@@ -8392,7 +8350,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B135" s="2">
         <v>147</v>
@@ -8400,7 +8358,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B136" s="2">
         <v>90</v>
@@ -8408,7 +8366,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B137" s="2">
         <v>148</v>

--- a/production/data/poets_cities.xlsx
+++ b/production/data/poets_cities.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="267">
   <si>
     <t>Melanippides</t>
   </si>
@@ -817,6 +817,15 @@
   </si>
   <si>
     <t>Izzy said Zancle, the former name of Messena</t>
+  </si>
+  <si>
+    <t>Pindar</t>
+  </si>
+  <si>
+    <t>Kynoskephalai</t>
+  </si>
+  <si>
+    <t>Olympia</t>
   </si>
 </sst>
 </file>
@@ -871,9 +880,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -945,7 +960,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="62">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -974,6 +989,9 @@
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1001,6 +1019,9 @@
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1279,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I252"/>
+  <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E254" sqref="E254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6387,6 +6408,91 @@
       </c>
       <c r="F252">
         <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>264</v>
+      </c>
+      <c r="B253" s="2">
+        <v>149</v>
+      </c>
+      <c r="C253" t="s">
+        <v>265</v>
+      </c>
+      <c r="D253">
+        <v>86</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>264</v>
+      </c>
+      <c r="B254" s="2">
+        <v>149</v>
+      </c>
+      <c r="C254" t="s">
+        <v>135</v>
+      </c>
+      <c r="D254">
+        <v>38</v>
+      </c>
+      <c r="F254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>264</v>
+      </c>
+      <c r="B255" s="2">
+        <v>149</v>
+      </c>
+      <c r="C255" t="s">
+        <v>5</v>
+      </c>
+      <c r="D255">
+        <v>3</v>
+      </c>
+      <c r="F255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>264</v>
+      </c>
+      <c r="B256" s="2">
+        <v>149</v>
+      </c>
+      <c r="C256" t="s">
+        <v>3</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="F256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>264</v>
+      </c>
+      <c r="B257" s="2">
+        <v>149</v>
+      </c>
+      <c r="C257" t="s">
+        <v>266</v>
+      </c>
+      <c r="D257">
+        <v>87</v>
+      </c>
+      <c r="F257">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6550,10 +6656,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection sqref="A1:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7253,6 +7359,22 @@
       </c>
       <c r="B83" s="6">
         <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>265</v>
+      </c>
+      <c r="B84" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>266</v>
+      </c>
+      <c r="B85" s="6">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/production/data/poets_cities.xlsx
+++ b/production/data/poets_cities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820"/>
+    <workbookView xWindow="13920" yWindow="-20" windowWidth="13920" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="poets" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="267">
   <si>
     <t>Melanippides</t>
   </si>
@@ -880,15 +880,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -960,7 +954,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="56">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -989,9 +983,6 @@
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1019,9 +1010,6 @@
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1292,7 +1280,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1302,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E254" sqref="E254"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1403,6 +1391,9 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4" t="s">
+        <v>194</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
     </row>
@@ -1423,6 +1414,9 @@
       <c r="F5">
         <v>3</v>
       </c>
+      <c r="G5" t="s">
+        <v>249</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
     </row>
@@ -1443,6 +1437,9 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6" t="s">
+        <v>218</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
     </row>
@@ -1531,9 +1528,6 @@
       <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" t="s">
-        <v>131</v>
-      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="2"/>
     </row>
@@ -1665,9 +1659,6 @@
       <c r="F16">
         <v>3</v>
       </c>
-      <c r="G16" t="s">
-        <v>132</v>
-      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="2"/>
     </row>
@@ -1708,6 +1699,9 @@
       <c r="F18">
         <v>1</v>
       </c>
+      <c r="G18" t="s">
+        <v>212</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="2"/>
     </row>
@@ -1753,6 +1747,9 @@
       <c r="F20">
         <v>1</v>
       </c>
+      <c r="G20" t="s">
+        <v>212</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="2"/>
     </row>
@@ -1792,6 +1789,9 @@
       <c r="F22">
         <v>1</v>
       </c>
+      <c r="G22" t="s">
+        <v>131</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="2"/>
     </row>
@@ -1858,6 +1858,9 @@
       <c r="F25">
         <v>3</v>
       </c>
+      <c r="G25" t="s">
+        <v>212</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="2"/>
     </row>
@@ -1878,6 +1881,9 @@
       <c r="F26">
         <v>3</v>
       </c>
+      <c r="G26" t="s">
+        <v>212</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="2"/>
     </row>
@@ -1918,6 +1924,9 @@
       <c r="F28">
         <v>3</v>
       </c>
+      <c r="G28" t="s">
+        <v>212</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="2"/>
     </row>
@@ -2003,6 +2012,9 @@
       <c r="F32">
         <v>3</v>
       </c>
+      <c r="G32" t="s">
+        <v>250</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="2"/>
     </row>
@@ -2023,6 +2035,9 @@
       <c r="F33">
         <v>3</v>
       </c>
+      <c r="G33" t="s">
+        <v>212</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="2"/>
     </row>
@@ -2170,6 +2185,9 @@
       <c r="F40">
         <v>1</v>
       </c>
+      <c r="G40" t="s">
+        <v>132</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="2"/>
     </row>
@@ -2564,9 +2582,6 @@
       <c r="F59">
         <v>1</v>
       </c>
-      <c r="G59" t="s">
-        <v>130</v>
-      </c>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9">
@@ -2655,6 +2670,9 @@
       <c r="F63">
         <v>1</v>
       </c>
+      <c r="G63" t="s">
+        <v>212</v>
+      </c>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9">
@@ -2854,7 +2872,6 @@
       <c r="F73">
         <v>1</v>
       </c>
-      <c r="G73" s="1"/>
       <c r="H73" s="3"/>
       <c r="I73" s="2"/>
     </row>
@@ -2874,7 +2891,6 @@
       <c r="F74">
         <v>3</v>
       </c>
-      <c r="G74" s="1"/>
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9">
@@ -2896,7 +2912,6 @@
       <c r="F75">
         <v>1</v>
       </c>
-      <c r="G75" s="1"/>
       <c r="H75" s="3"/>
       <c r="I75" s="2"/>
     </row>
@@ -2958,9 +2973,6 @@
       <c r="F78">
         <v>1</v>
       </c>
-      <c r="G78" t="s">
-        <v>134</v>
-      </c>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9">
@@ -3002,6 +3014,9 @@
       <c r="F80">
         <v>1</v>
       </c>
+      <c r="G80" t="s">
+        <v>212</v>
+      </c>
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9">
@@ -3082,9 +3097,6 @@
       <c r="F84">
         <v>3</v>
       </c>
-      <c r="G84" t="s">
-        <v>133</v>
-      </c>
       <c r="H84" s="3"/>
       <c r="I84" s="2"/>
     </row>
@@ -3242,6 +3254,9 @@
       <c r="F92">
         <v>3</v>
       </c>
+      <c r="G92" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
@@ -3281,37 +3296,42 @@
       <c r="F94">
         <v>3</v>
       </c>
+      <c r="G94" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" t="s">
-        <v>155</v>
-      </c>
-      <c r="B95" s="2">
-        <f>VLOOKUP(A95,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>114</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2</v>
+      <c r="A95" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95">
+        <v>67</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B96">
-        <v>67</v>
-      </c>
-      <c r="C96" s="3" t="s">
+      <c r="A96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" s="2">
+        <v>42</v>
+      </c>
+      <c r="C96" t="s">
         <v>3</v>
       </c>
       <c r="D96">
         <v>2</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -3325,16 +3345,16 @@
         <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3345,10 +3365,10 @@
         <v>42</v>
       </c>
       <c r="C98" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D98">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>87</v>
@@ -3358,74 +3378,75 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>59</v>
-      </c>
-      <c r="B99" s="2">
-        <v>42</v>
-      </c>
-      <c r="C99" t="s">
-        <v>74</v>
+      <c r="A99" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99">
+        <v>68</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>10</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B100">
-        <v>68</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="2">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
         <v>3</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
+      <c r="E100" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>20</v>
-      </c>
-      <c r="B101" s="2">
-        <v>12</v>
-      </c>
-      <c r="C101" t="s">
-        <v>3</v>
+      <c r="A101" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101">
+        <v>69</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="D101">
-        <v>2</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B102">
-        <v>69</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>110</v>
+      <c r="A102" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" s="2">
+        <f>VLOOKUP(A102,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>115</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -3440,65 +3461,65 @@
         <v>115</v>
       </c>
       <c r="C103" t="s">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="D103">
-        <v>2</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>156</v>
-      </c>
-      <c r="B104" s="2">
-        <f>VLOOKUP(A104,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>115</v>
-      </c>
-      <c r="C104" t="s">
-        <v>255</v>
+      <c r="A104" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104">
+        <v>70</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="F104">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B105">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B106">
-        <v>71</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>63</v>
+      <c r="A106" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" s="2">
+        <f>VLOOKUP(A106,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="C106" t="s">
+        <v>36</v>
       </c>
       <c r="D106">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -3513,34 +3534,34 @@
         <v>116</v>
       </c>
       <c r="C107" t="s">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="D107">
-        <v>11</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B108" s="2">
         <f>VLOOKUP(A108,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C108" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="D108">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3552,16 +3573,16 @@
         <v>117</v>
       </c>
       <c r="C109" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="D109">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3573,76 +3594,72 @@
         <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>114</v>
       </c>
       <c r="D110">
-        <v>49</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>158</v>
-      </c>
-      <c r="B111" s="2">
-        <f>VLOOKUP(A111,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>117</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="A111" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B111">
+        <v>72</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D111">
         <v>41</v>
       </c>
       <c r="F111">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="3" t="s">
-        <v>203</v>
+      <c r="A112" t="s">
+        <v>202</v>
       </c>
       <c r="B112">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="D112">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="F112">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="3" t="s">
+      <c r="A113" t="s">
         <v>202</v>
       </c>
       <c r="B113">
         <v>55</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="3" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="B114">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>3</v>
@@ -3651,44 +3668,47 @@
         <v>2</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115">
-        <v>73</v>
-      </c>
-      <c r="C115" s="3" t="s">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" s="2">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
         <v>3</v>
       </c>
       <c r="D115">
         <v>2</v>
       </c>
+      <c r="E115" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="F115">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B116" s="2">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C116" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F116">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3699,16 +3719,16 @@
         <v>51</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3719,10 +3739,10 @@
         <v>51</v>
       </c>
       <c r="C118" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D118">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>87</v>
@@ -3733,10 +3753,10 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B119" s="2">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
         <v>3</v>
@@ -3745,67 +3765,64 @@
         <v>2</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F119">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" t="s">
-        <v>22</v>
-      </c>
-      <c r="B120" s="2">
-        <v>14</v>
-      </c>
-      <c r="C120" t="s">
-        <v>3</v>
+      <c r="A120" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120">
+        <v>75</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D120">
-        <v>2</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="F120">
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B121">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F121">
         <v>1</v>
       </c>
-      <c r="G121" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B122">
-        <v>76</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>42</v>
+      <c r="A122" t="s">
+        <v>65</v>
+      </c>
+      <c r="B122" s="2">
+        <v>46</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3</v>
       </c>
       <c r="D122">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -3813,16 +3830,16 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B123" s="2">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C123" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>85</v>
@@ -3839,39 +3856,36 @@
         <v>20</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B125" s="2">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C125" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D125">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F125">
-        <v>3</v>
-      </c>
-      <c r="G125" t="s">
-        <v>212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3882,27 +3896,25 @@
         <v>47</v>
       </c>
       <c r="C126" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D126">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126" t="s">
-        <v>212</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="B127" s="2">
-        <v>47</v>
+        <f>VLOOKUP(A127,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>119</v>
       </c>
       <c r="C127" t="s">
         <v>3</v>
@@ -3911,31 +3923,34 @@
         <v>2</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F127">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B128" s="2">
         <f>VLOOKUP(A128,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C128" t="s">
-        <v>3</v>
+        <v>222</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F128">
         <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3947,48 +3962,48 @@
         <v>120</v>
       </c>
       <c r="C129" t="s">
-        <v>222</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>50</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="B130" s="2">
-        <f>VLOOKUP(A130,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="C130" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F130">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="B131" s="2">
-        <v>28</v>
+        <f>VLOOKUP(A131,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>121</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D131">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>85</v>
@@ -4006,16 +4021,13 @@
         <v>121</v>
       </c>
       <c r="C132" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>31</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4027,10 +4039,10 @@
         <v>121</v>
       </c>
       <c r="C133" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F133">
         <v>3</v>
@@ -4038,20 +4050,22 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="B134" s="2">
-        <f>VLOOKUP(A134,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F134">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4062,16 +4076,16 @@
         <v>3</v>
       </c>
       <c r="C135" t="s">
+        <v>73</v>
+      </c>
+      <c r="D135">
         <v>7</v>
       </c>
-      <c r="D135">
-        <v>6</v>
-      </c>
       <c r="E135" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4082,10 +4096,10 @@
         <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D136">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>87</v>
@@ -4093,28 +4107,22 @@
       <c r="F136">
         <v>3</v>
       </c>
-      <c r="G136" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" s="2">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
-        <v>3</v>
+      <c r="A137" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B137">
+        <v>52</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D137">
-        <v>2</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="F137">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4125,13 +4133,13 @@
         <v>52</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="D138">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4142,34 +4150,36 @@
         <v>52</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D139">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F139">
         <v>3</v>
       </c>
-      <c r="G139" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B140">
-        <v>52</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>127</v>
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F140">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G140" s="1"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
@@ -4180,17 +4190,18 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F141">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
@@ -4201,88 +4212,92 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D142">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F142">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="2">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="C143" t="s">
-        <v>3</v>
-      </c>
-      <c r="D143">
-        <v>2</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>87</v>
+      <c r="A143" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B143">
+        <v>91</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2</v>
       </c>
       <c r="F143">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B144">
-        <v>91</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" s="3">
-        <v>2</v>
+      <c r="A144" t="s">
+        <v>68</v>
+      </c>
+      <c r="B144" s="2">
+        <v>48</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" t="s">
-        <v>68</v>
-      </c>
-      <c r="B145" s="2">
-        <v>48</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="A145" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B145">
+        <v>53</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D145">
         <v>2</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="F145">
         <v>1</v>
       </c>
+      <c r="G145" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B146">
-        <v>53</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>3</v>
+      <c r="A146" t="s">
+        <v>162</v>
+      </c>
+      <c r="B146" s="2">
+        <f>VLOOKUP(A146,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>122</v>
+      </c>
+      <c r="C146" t="s">
+        <v>78</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -4297,10 +4312,10 @@
         <v>122</v>
       </c>
       <c r="C147" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D147">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>85</v>
@@ -4318,54 +4333,53 @@
         <v>122</v>
       </c>
       <c r="C148" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="D148">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F148">
         <v>1</v>
+      </c>
+      <c r="G148" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="B149" s="2">
-        <f>VLOOKUP(A149,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="C149" t="s">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="D149">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F149">
-        <v>1</v>
-      </c>
-      <c r="G149" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" t="s">
+      <c r="A150" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B150" s="2">
         <v>49</v>
       </c>
-      <c r="C150" t="s">
-        <v>3</v>
+      <c r="C150" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>87</v>
@@ -4375,52 +4389,52 @@
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="4" t="s">
-        <v>69</v>
+      <c r="A151" t="s">
+        <v>163</v>
       </c>
       <c r="B151" s="2">
-        <v>49</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>56</v>
+        <f>VLOOKUP(A151,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>123</v>
+      </c>
+      <c r="C151" t="s">
+        <v>191</v>
       </c>
       <c r="D151">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F151">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B152" s="2">
-        <f>VLOOKUP(A152,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="D152">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B153" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
         <v>3</v>
@@ -4434,16 +4448,13 @@
       <c r="F153">
         <v>3</v>
       </c>
-      <c r="G153" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B154" s="2">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C154" t="s">
         <v>3</v>
@@ -4459,90 +4470,94 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" t="s">
-        <v>44</v>
-      </c>
-      <c r="B155" s="2">
-        <v>29</v>
-      </c>
-      <c r="C155" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155">
-        <v>2</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A155" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B155">
+        <v>78</v>
+      </c>
+      <c r="C155" s="3"/>
       <c r="F155">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G155" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B156">
-        <v>78</v>
-      </c>
-      <c r="C156" s="3"/>
+      <c r="A156" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" s="2">
+        <f>VLOOKUP(A156,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>124</v>
+      </c>
+      <c r="C156" t="s">
+        <v>224</v>
+      </c>
+      <c r="D156">
+        <v>53</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F156">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="B157" s="2">
-        <f>VLOOKUP(A157,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="C157" t="s">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="D157">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" t="s">
-        <v>25</v>
-      </c>
-      <c r="B158" s="2">
+      <c r="A158" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B158">
+        <v>89</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" s="2">
+        <f>VLOOKUP(A159,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>126</v>
+      </c>
+      <c r="C159" t="s">
+        <v>76</v>
+      </c>
+      <c r="D159">
         <v>17</v>
       </c>
-      <c r="C158" t="s">
-        <v>3</v>
-      </c>
-      <c r="D158">
-        <v>2</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F158">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B159">
-        <v>89</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D159">
-        <v>2</v>
+      <c r="E159" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -4557,37 +4572,39 @@
         <v>126</v>
       </c>
       <c r="C160" t="s">
+        <v>256</v>
+      </c>
+      <c r="D160">
         <v>76</v>
       </c>
-      <c r="D160">
-        <v>17</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="F160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="G160" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="B161" s="2">
-        <f>VLOOKUP(A161,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="C161" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="D161">
-        <v>76</v>
+        <v>35</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F161">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>34</v>
       </c>
@@ -4595,19 +4612,19 @@
         <v>24</v>
       </c>
       <c r="C162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D162">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>34</v>
       </c>
@@ -4615,19 +4632,19 @@
         <v>24</v>
       </c>
       <c r="C163" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D163">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>34</v>
       </c>
@@ -4635,10 +4652,10 @@
         <v>24</v>
       </c>
       <c r="C164" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>87</v>
@@ -4647,7 +4664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>34</v>
       </c>
@@ -4655,10 +4672,10 @@
         <v>24</v>
       </c>
       <c r="C165" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D165">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>87</v>
@@ -4667,7 +4684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>34</v>
       </c>
@@ -4675,10 +4692,10 @@
         <v>24</v>
       </c>
       <c r="C166" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D166">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>87</v>
@@ -4687,38 +4704,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B167" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C167" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D167">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F167">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="B168" s="2">
-        <v>25</v>
+        <f>VLOOKUP(A168,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>127</v>
       </c>
       <c r="C168" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D168">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>85</v>
@@ -4727,19 +4745,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="B169" s="2">
-        <f>VLOOKUP(A169,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D169">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>85</v>
@@ -4748,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -4756,59 +4773,56 @@
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D170">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" t="s">
-        <v>9</v>
-      </c>
-      <c r="B171" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B171">
+        <v>82</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C171" t="s">
-        <v>3</v>
-      </c>
       <c r="D171">
-        <v>2</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="F171">
-        <v>3</v>
-      </c>
-      <c r="G171" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B172">
-        <v>82</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>39</v>
+      </c>
+      <c r="B172" s="2">
+        <v>26</v>
+      </c>
+      <c r="C172" t="s">
+        <v>40</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>39</v>
       </c>
@@ -4816,54 +4830,52 @@
         <v>26</v>
       </c>
       <c r="C173" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D173">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="B174" s="2">
-        <v>26</v>
+        <f>VLOOKUP(A174,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>128</v>
       </c>
       <c r="C174" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F174">
-        <v>3</v>
-      </c>
-      <c r="G174" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B175" s="2">
         <f>VLOOKUP(A175,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C175" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="D175">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>85</v>
@@ -4872,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>169</v>
       </c>
@@ -4881,48 +4893,47 @@
         <v>129</v>
       </c>
       <c r="C176" t="s">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="D176">
-        <v>55</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" t="s">
-        <v>169</v>
-      </c>
-      <c r="B177" s="2">
-        <f>VLOOKUP(A177,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>129</v>
-      </c>
-      <c r="C177" t="s">
-        <v>3</v>
+      <c r="A177" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B177">
+        <v>83</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F177">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B178">
-        <v>83</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>33</v>
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="2">
+        <v>2</v>
+      </c>
+      <c r="C178" t="s">
+        <v>5</v>
       </c>
       <c r="D178">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -4936,16 +4947,16 @@
         <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4956,19 +4967,16 @@
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D180">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F180">
         <v>3</v>
-      </c>
-      <c r="G180" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4979,10 +4987,10 @@
         <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D181">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>87</v>
@@ -4993,22 +5001,23 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="B182" s="2">
-        <v>2</v>
+        <f>VLOOKUP(A182,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>131</v>
       </c>
       <c r="C182" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F182">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5020,16 +5029,13 @@
         <v>131</v>
       </c>
       <c r="C183" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="D183">
-        <v>38</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5041,10 +5047,10 @@
         <v>131</v>
       </c>
       <c r="C184" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D184">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F184">
         <v>3</v>
@@ -5059,31 +5065,37 @@
         <v>131</v>
       </c>
       <c r="C185" t="s">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="D185">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F185">
         <v>3</v>
+      </c>
+      <c r="G185" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B186" s="2">
         <f>VLOOKUP(A186,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C186" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="D186">
-        <v>54</v>
+        <v>8</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F186">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5095,19 +5107,16 @@
         <v>132</v>
       </c>
       <c r="C187" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="D187">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F187">
         <v>1</v>
-      </c>
-      <c r="G187" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5119,16 +5128,16 @@
         <v>132</v>
       </c>
       <c r="C188" t="s">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="D188">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5140,49 +5149,52 @@
         <v>132</v>
       </c>
       <c r="C189" t="s">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="D189">
-        <v>21</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F189">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G189" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B190" s="2">
         <f>VLOOKUP(A190,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C190" t="s">
-        <v>242</v>
+        <v>123</v>
       </c>
       <c r="D190">
-        <v>68</v>
+        <v>42</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F190">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B191" s="2">
         <f>VLOOKUP(A191,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C191" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D191">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>85</v>
@@ -5200,43 +5212,37 @@
         <v>134</v>
       </c>
       <c r="C192" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="D192">
-        <v>41</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F192">
-        <v>1</v>
-      </c>
-      <c r="G192" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B193" s="2">
         <f>VLOOKUP(A193,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C193" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D193">
-        <v>77</v>
+        <v>46</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F193">
-        <v>3</v>
-      </c>
-      <c r="G193" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>174</v>
       </c>
@@ -5245,19 +5251,16 @@
         <v>135</v>
       </c>
       <c r="C194" t="s">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="D194">
-        <v>46</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>174</v>
       </c>
@@ -5266,19 +5269,16 @@
         <v>135</v>
       </c>
       <c r="C195" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F195">
         <v>3</v>
       </c>
-      <c r="G195" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>174</v>
       </c>
@@ -5287,16 +5287,16 @@
         <v>135</v>
       </c>
       <c r="C196" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D196">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F196">
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>174</v>
       </c>
@@ -5305,19 +5305,16 @@
         <v>135</v>
       </c>
       <c r="C197" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="D197">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F197">
         <v>3</v>
       </c>
-      <c r="G197" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>174</v>
       </c>
@@ -5326,19 +5323,16 @@
         <v>135</v>
       </c>
       <c r="C198" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="D198">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F198">
         <v>3</v>
       </c>
-      <c r="G198" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>174</v>
       </c>
@@ -5347,16 +5341,16 @@
         <v>135</v>
       </c>
       <c r="C199" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D199">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F199">
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>174</v>
       </c>
@@ -5365,51 +5359,54 @@
         <v>135</v>
       </c>
       <c r="C200" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D200">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F200">
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
-      <c r="A201" t="s">
-        <v>174</v>
-      </c>
-      <c r="B201" s="2">
-        <f>VLOOKUP(A201,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>135</v>
-      </c>
-      <c r="C201" t="s">
-        <v>260</v>
+    <row r="201" spans="1:6">
+      <c r="A201" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B201">
+        <v>84</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="D201">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="F201">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B202">
-        <v>84</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>175</v>
+      </c>
+      <c r="B202" s="2">
+        <f>VLOOKUP(A202,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>136</v>
+      </c>
+      <c r="C202" t="s">
+        <v>3</v>
       </c>
       <c r="D202">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F202">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>175</v>
       </c>
@@ -5418,19 +5415,19 @@
         <v>136</v>
       </c>
       <c r="C203" t="s">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
         <v>175</v>
       </c>
@@ -5438,55 +5435,55 @@
         <f>VLOOKUP(A204,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
         <v>136</v>
       </c>
-      <c r="C204" t="s">
-        <v>233</v>
+      <c r="C204" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="D204">
-        <v>63</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="F204">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>175</v>
       </c>
       <c r="B205" s="2">
-        <f>VLOOKUP(A205,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
         <v>136</v>
       </c>
-      <c r="C205" s="5" t="s">
-        <v>195</v>
+      <c r="C205" t="s">
+        <v>233</v>
       </c>
       <c r="D205">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F205">
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B206" s="2">
-        <v>136</v>
+        <f>VLOOKUP(A206,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>137</v>
       </c>
       <c r="C206" t="s">
-        <v>233</v>
+        <v>3</v>
       </c>
       <c r="D206">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F206">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>176</v>
       </c>
@@ -5495,65 +5492,65 @@
         <v>137</v>
       </c>
       <c r="C207" t="s">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="D207">
-        <v>2</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="A208" t="s">
-        <v>176</v>
-      </c>
-      <c r="B208" s="2">
-        <f>VLOOKUP(A208,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>137</v>
-      </c>
-      <c r="C208" t="s">
-        <v>237</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B208">
+        <v>85</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D208">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="F208">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B209">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="F209">
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B210">
-        <v>86</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>114</v>
+      <c r="A210" t="s">
+        <v>177</v>
+      </c>
+      <c r="B210" s="2">
+        <f>VLOOKUP(A210,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>138</v>
+      </c>
+      <c r="C210" t="s">
+        <v>46</v>
       </c>
       <c r="D210">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -5568,10 +5565,10 @@
         <v>138</v>
       </c>
       <c r="C211" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="D211">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>85</v>
@@ -5589,16 +5586,16 @@
         <v>138</v>
       </c>
       <c r="C212" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D212">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5610,16 +5607,13 @@
         <v>138</v>
       </c>
       <c r="C213" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="D213">
-        <v>64</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F213">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5631,37 +5625,34 @@
         <v>138</v>
       </c>
       <c r="C214" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D214">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F214">
         <v>3</v>
-      </c>
-      <c r="G214" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B215" s="2">
         <f>VLOOKUP(A215,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C215" t="s">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="D215">
-        <v>84</v>
+        <v>17</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F215">
-        <v>3</v>
-      </c>
-      <c r="G215" t="s">
-        <v>212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5673,48 +5664,50 @@
         <v>139</v>
       </c>
       <c r="C216" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D216">
-        <v>17</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G216" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" t="s">
-        <v>178</v>
-      </c>
-      <c r="B217" s="2">
-        <f>VLOOKUP(A217,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>139</v>
-      </c>
-      <c r="C217" t="s">
-        <v>3</v>
+      <c r="A217" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B217">
+        <v>54</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="F217">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B218">
-        <v>54</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>135</v>
+      <c r="A218" t="s">
+        <v>13</v>
+      </c>
+      <c r="B218" s="2">
+        <v>7</v>
+      </c>
+      <c r="C218" t="s">
+        <v>14</v>
       </c>
       <c r="D218">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -5728,16 +5721,16 @@
         <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D219">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5748,10 +5741,10 @@
         <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>87</v>
@@ -5768,10 +5761,10 @@
         <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D221">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>87</v>
@@ -5788,10 +5781,10 @@
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D222">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>87</v>
@@ -5802,45 +5795,43 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B223" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C223" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D223">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F223">
-        <v>3</v>
-      </c>
-      <c r="G223" t="s">
-        <v>257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="B224" s="2">
-        <v>22</v>
+        <f>VLOOKUP(A224,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>141</v>
       </c>
       <c r="C224" t="s">
-        <v>76</v>
-      </c>
-      <c r="D224">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F224">
         <v>1</v>
+      </c>
+      <c r="G224" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5852,7 +5843,10 @@
         <v>141</v>
       </c>
       <c r="C225" t="s">
-        <v>216</v>
+        <v>231</v>
+      </c>
+      <c r="D225">
+        <v>59</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>85</v>
@@ -5870,37 +5864,34 @@
         <v>141</v>
       </c>
       <c r="C226" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="D226">
-        <v>59</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B227" s="2">
         <f>VLOOKUP(A227,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C227" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="D227">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F227">
-        <v>3</v>
-      </c>
-      <c r="G227" t="s">
-        <v>212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5912,19 +5903,13 @@
         <v>142</v>
       </c>
       <c r="C228" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="D228">
-        <v>60</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="F228">
-        <v>1</v>
-      </c>
-      <c r="G228" t="s">
-        <v>212</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5936,10 +5921,10 @@
         <v>142</v>
       </c>
       <c r="C229" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="D229">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F229">
         <v>3</v>
@@ -5954,63 +5939,71 @@
         <v>142</v>
       </c>
       <c r="C230" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="D230">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F230">
         <v>3</v>
       </c>
+      <c r="G230" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" t="s">
-        <v>181</v>
-      </c>
-      <c r="B231" s="2">
-        <f>VLOOKUP(A231,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>142</v>
-      </c>
-      <c r="C231" t="s">
-        <v>227</v>
+      <c r="A231" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B231">
+        <v>87</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D231">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F231">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B232">
-        <v>87</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>75</v>
+      <c r="A232" t="s">
+        <v>182</v>
+      </c>
+      <c r="B232" s="2">
+        <f>VLOOKUP(A232,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>143</v>
+      </c>
+      <c r="C232" t="s">
+        <v>76</v>
       </c>
       <c r="D232">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F232">
         <v>1</v>
+      </c>
+      <c r="G232" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="B233" s="2">
-        <f>VLOOKUP(A233,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="C233" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D233">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>85</v>
@@ -6027,36 +6020,37 @@
         <v>45</v>
       </c>
       <c r="C234" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="B235" s="2">
-        <v>45</v>
+        <f>VLOOKUP(A235,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>144</v>
       </c>
       <c r="C235" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="D235">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F235">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6068,34 +6062,36 @@
         <v>144</v>
       </c>
       <c r="C236" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="D236">
-        <v>61</v>
-      </c>
-      <c r="E236" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G236" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="42">
       <c r="A237" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="B237" s="2">
-        <f>VLOOKUP(A237,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="D237">
+        <v>9</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F237">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6106,16 +6102,16 @@
         <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6126,16 +6122,16 @@
         <v>6</v>
       </c>
       <c r="C239" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D239">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F239">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -6146,10 +6142,10 @@
         <v>6</v>
       </c>
       <c r="C240" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>87</v>
@@ -6166,10 +6162,10 @@
         <v>6</v>
       </c>
       <c r="C241" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D241">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>87</v>
@@ -6180,40 +6176,38 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="B242" s="2">
-        <v>6</v>
+        <f>VLOOKUP(A242,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>146</v>
       </c>
       <c r="C242" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D242">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F242">
-        <v>3</v>
-      </c>
-      <c r="G242" t="s">
-        <v>246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B243" s="2">
         <f>VLOOKUP(A243,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C243" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D243">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>85</v>
@@ -6231,10 +6225,10 @@
         <v>145</v>
       </c>
       <c r="C244" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D244">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>85</v>
@@ -6252,10 +6246,10 @@
         <v>145</v>
       </c>
       <c r="C245" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D245">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>85</v>
@@ -6273,19 +6267,16 @@
         <v>145</v>
       </c>
       <c r="C246" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="D246">
-        <v>2</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G246" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6297,58 +6288,58 @@
         <v>145</v>
       </c>
       <c r="C247" t="s">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="D247">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F247">
         <v>3</v>
-      </c>
-      <c r="G247" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B248" s="2">
         <f>VLOOKUP(A248,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C248" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D248">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G248" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="B249" s="2">
         <f>VLOOKUP(A249,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C249" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="D249">
-        <v>2</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G249" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6360,54 +6351,51 @@
         <v>148</v>
       </c>
       <c r="C250" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D250">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F250">
         <v>3</v>
-      </c>
-      <c r="G250" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="B251" s="2">
-        <f>VLOOKUP(A251,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
         <v>148</v>
       </c>
       <c r="C251" t="s">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="D251">
-        <v>64</v>
+        <v>20</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="F251">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="B252" s="2">
-        <v>148</v>
+        <f>VLOOKUP(A252,'poets lookup'!$A$1:$B$137,2,FALSE)</f>
+        <v>114</v>
       </c>
       <c r="C252" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>20</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="F252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6496,8 +6484,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F254">
-    <sortCondition ref="A2"/>
+  <sortState ref="A2:G253">
+    <sortCondition ref="A52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6656,10 +6644,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection sqref="A1:B85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7359,22 +7347,6 @@
       </c>
       <c r="B83" s="6">
         <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>265</v>
-      </c>
-      <c r="B84" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>266</v>
-      </c>
-      <c r="B85" s="6">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/production/data/poets_cities.xlsx
+++ b/production/data/poets_cities.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="269">
   <si>
     <t>Melanippides</t>
   </si>
@@ -826,6 +826,12 @@
   </si>
   <si>
     <t>Olympia</t>
+  </si>
+  <si>
+    <t>Metapontion</t>
+  </si>
+  <si>
+    <t>Aigina</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1286,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1290,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1408,6 +1414,9 @@
       <c r="C5" t="s">
         <v>234</v>
       </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>87</v>
       </c>
@@ -5427,7 +5436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" ht="42">
       <c r="A204" t="s">
         <v>175</v>
       </c>
@@ -6074,7 +6083,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="42">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>11</v>
       </c>
@@ -6644,10 +6653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection sqref="A1:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7347,6 +7356,46 @@
       </c>
       <c r="B83" s="6">
         <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>265</v>
+      </c>
+      <c r="B84" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>266</v>
+      </c>
+      <c r="B85" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B86" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B88" s="6">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/production/data/poets_cities.xlsx
+++ b/production/data/poets_cities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="poets" sheetId="1" state="visible" r:id="rId2"/>
@@ -865,18 +865,12 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -930,15 +924,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -978,8 +972,8 @@
   </sheetPr>
   <dimension ref="A1:I258"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="5:6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="5:6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1088,7 +1082,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" s="3" customFormat="true" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="3" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1114,7 +1108,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" s="3" customFormat="true" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="3" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1139,7 +1133,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>20</v>
       </c>
@@ -6221,7 +6215,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="5:6 A2"/>
     </sheetView>
   </sheetViews>
@@ -6373,7 +6367,7 @@
   </sheetPr>
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="5:6 A1"/>
     </sheetView>
   </sheetViews>
@@ -7137,7 +7131,7 @@
   </sheetPr>
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="5:6 A1"/>
     </sheetView>
   </sheetViews>

--- a/production/data/poets_cities.xlsx
+++ b/production/data/poets_cities.xlsx
@@ -86,7 +86,30 @@
     <t>Messoa</t>
   </si>
   <si>
-    <t> (no location in Pleades)</t>
+    <r>
+      <t>One of villages that becomes Sparta in the 10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> c.</t>
+    </r>
   </si>
   <si>
     <t>Sardis</t>
@@ -841,7 +864,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -863,6 +886,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -973,7 +1004,7 @@
   <dimension ref="A1:I258"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="5:6"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1133,7 +1164,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>20</v>
       </c>
@@ -6216,7 +6247,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="5:6 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -6368,7 +6399,7 @@
   <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="5:6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -7132,7 +7163,7 @@
   <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="5:6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/production/data/poets_cities.xlsx
+++ b/production/data/poets_cities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="poets" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="273">
   <si>
     <t>poets_poet_name</t>
   </si>
@@ -83,35 +83,6 @@
     <t>Alcman</t>
   </si>
   <si>
-    <t>Messoa</t>
-  </si>
-  <si>
-    <r>
-      <t>One of villages that becomes Sparta in the 10</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> c.</t>
-    </r>
-  </si>
-  <si>
     <t>Sardis</t>
   </si>
   <si>
@@ -124,6 +95,9 @@
     <t>Alkimakhos</t>
   </si>
   <si>
+    <t>Not in the New Pauly</t>
+  </si>
+  <si>
     <t>Nemea</t>
   </si>
   <si>
@@ -142,6 +116,12 @@
     <t>Abdera</t>
   </si>
   <si>
+    <t>Samos</t>
+  </si>
+  <si>
+    <t>NP: “Hipparchus sent a warship to Samos, for the purpose of bringing A. back from there (Pl. Hipparch. 228B-c).”</t>
+  </si>
+  <si>
     <t>Ananius</t>
   </si>
   <si>
@@ -157,10 +137,13 @@
     <t>Thebes</t>
   </si>
   <si>
+    <t>GL: Eustathius says he might have taught Pindar poetry and put Pindar in charge of a chorus while he (Pindar) was a boy because he had to go out of town.</t>
+  </si>
+  <si>
     <t>Archelaos</t>
   </si>
   <si>
-    <t>some uncertainty, assigned athens</t>
+    <t>some uncertainty, assigned athens; not in the New Pauly</t>
   </si>
   <si>
     <t>Archilochus</t>
@@ -184,6 +167,9 @@
     <t>Arignotos</t>
   </si>
   <si>
+    <t>Not in the New Pauly or LG</t>
+  </si>
+  <si>
     <t>Arion</t>
   </si>
   <si>
@@ -242,9 +228,6 @@
   </si>
   <si>
     <t>Asius</t>
-  </si>
-  <si>
-    <t>Samos</t>
   </si>
   <si>
     <t>Bacchylides</t>
@@ -864,7 +847,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -886,14 +869,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -942,12 +917,12 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -956,18 +931,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -991,7 +954,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Normal" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1003,14 +966,14 @@
   </sheetPr>
   <dimension ref="A1:I258"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.83163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.83163265306122"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.8367346938776"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.8265306122449"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3316326530612"/>
@@ -1117,7 +1080,7 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="1" t="n">
         <f aca="false">VLOOKUP(A5,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>92</v>
       </c>
@@ -1127,7 +1090,7 @@
       <c r="D5" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="3" t="n">
@@ -1136,14 +1099,14 @@
       <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" s="3" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="1" t="n">
         <v>92</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1152,7 +1115,7 @@
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3" t="n">
@@ -1161,10 +1124,10 @@
       <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>20</v>
       </c>
@@ -1175,14 +1138,14 @@
       <c r="C7" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>43</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
@@ -1196,10 +1159,10 @@
         <v>93</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
@@ -1219,33 +1182,32 @@
         <v>93</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F9" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="n">
-        <f aca="false">VLOOKUP(A10,'poets lookup'!$A$1:$B$137,2,0)</f>
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>3</v>
@@ -1255,10 +1217,10 @@
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>8</v>
@@ -1272,21 +1234,24 @@
       <c r="F11" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G11" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>35</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -1299,7 +1264,7 @@
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>35</v>
@@ -1308,7 +1273,7 @@
         <v>27</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -1321,7 +1286,7 @@
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>35</v>
@@ -1330,7 +1295,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
@@ -1341,31 +1306,32 @@
       <c r="H14" s="2"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>35</v>
+        <f aca="false">VLOOKUP(A15,'poets lookup'!$A$1:$B$137,2,0)</f>
+        <v>94</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="n">
         <f aca="false">VLOOKUP(A16,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -1375,30 +1341,33 @@
         <v>31</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="n">
         <f aca="false">VLOOKUP(A17,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>94</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>3</v>
@@ -1406,36 +1375,41 @@
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="n">
-        <f aca="false">VLOOKUP(A18,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>94</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="n">
         <f aca="false">VLOOKUP(A19,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>95</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>9</v>
@@ -1449,9 +1423,9 @@
       <c r="H19" s="2"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>8</v>
@@ -1471,133 +1445,133 @@
       <c r="H20" s="2"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="n">
         <f aca="false">VLOOKUP(A21,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>96</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <f aca="false">VLOOKUP(A22,'poets lookup'!$A$1:$B$137,2,0)</f>
-        <v>96</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>37</v>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>8</v>
+    <row r="23" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <f aca="false">VLOOKUP(A23,'poets lookup'!$A$1:$B$137,2,0)</f>
+        <v>97</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="n">
         <f aca="false">VLOOKUP(A24,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>97</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="n">
         <f aca="false">VLOOKUP(A25,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>97</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1" t="n">
         <f aca="false">VLOOKUP(A26,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>97</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>3</v>
@@ -1610,82 +1584,85 @@
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1" t="n">
         <f aca="false">VLOOKUP(A27,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>97</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1" t="n">
         <f aca="false">VLOOKUP(A28,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>97</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1" t="n">
-        <f aca="false">VLOOKUP(A29,'poets lookup'!$A$1:$B$137,2,0)</f>
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>67</v>
+        <v>2</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>37</v>
+        <f aca="false">VLOOKUP(A30,'poets lookup'!$A$1:$B$137,2,0)</f>
+        <v>98</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
@@ -1698,107 +1675,104 @@
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1" t="n">
         <f aca="false">VLOOKUP(A31,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>98</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F31" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1" t="n">
         <f aca="false">VLOOKUP(A32,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>98</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D32" s="0" t="e">
+        <f aca="false">#N/A</f>
+        <v>#N/A</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1" t="n">
         <f aca="false">VLOOKUP(A33,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>98</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="0" t="e">
-        <f aca="false">#N/A</f>
-        <v>#N/A</v>
+        <v>55</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>68</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1" t="n">
         <f aca="false">VLOOKUP(A34,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>98</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1" t="n">
         <f aca="false">VLOOKUP(A35,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>98</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>3</v>
@@ -1808,17 +1782,19 @@
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B36" s="1" t="n">
-        <f aca="false">VLOOKUP(A36,'poets lookup'!$A$1:$B$137,2,0)</f>
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>69</v>
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>3</v>
@@ -1828,54 +1804,54 @@
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>23</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>8</v>
@@ -1893,58 +1869,58 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C40" s="0" t="s">
+      <c r="A40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F40" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>59</v>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>38</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>30</v>
@@ -1960,7 +1936,7 @@
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>10</v>
@@ -1982,13 +1958,13 @@
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>19</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>33</v>
@@ -2004,14 +1980,14 @@
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B45" s="1" t="n">
         <f aca="false">VLOOKUP(A45,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>99</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>41</v>
@@ -2027,14 +2003,14 @@
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B46" s="1" t="n">
         <f aca="false">VLOOKUP(A46,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>100</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>46</v>
@@ -2050,14 +2026,14 @@
     </row>
     <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B47" s="1" t="n">
         <f aca="false">VLOOKUP(A47,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>100</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>18</v>
@@ -2069,14 +2045,14 @@
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1" t="n">
         <f aca="false">VLOOKUP(A48,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>100</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>30</v>
@@ -2088,7 +2064,7 @@
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1" t="n">
         <f aca="false">VLOOKUP(A49,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -2107,7 +2083,7 @@
     </row>
     <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50" s="1" t="n">
         <f aca="false">VLOOKUP(A50,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -2126,14 +2102,14 @@
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B51" s="1" t="n">
         <f aca="false">VLOOKUP(A51,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>100</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>10</v>
@@ -2145,14 +2121,14 @@
     </row>
     <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1" t="n">
         <f aca="false">VLOOKUP(A52,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>100</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>70</v>
@@ -2164,13 +2140,13 @@
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>11</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>13</v>
@@ -2185,13 +2161,13 @@
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>11</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>16</v>
@@ -2206,14 +2182,14 @@
     </row>
     <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B55" s="1" t="n">
         <f aca="false">VLOOKUP(A55,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>101</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>11</v>
@@ -2228,13 +2204,13 @@
     </row>
     <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>33</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>26</v>
@@ -2249,7 +2225,7 @@
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" s="1" t="n">
         <f aca="false">VLOOKUP(A57,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -2270,13 +2246,13 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>79</v>
+      <c r="A58" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="0" t="n">
@@ -2289,7 +2265,7 @@
     </row>
     <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>4</v>
@@ -2310,13 +2286,13 @@
     </row>
     <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>27</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>15</v>
@@ -2331,14 +2307,14 @@
     </row>
     <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B61" s="1" t="n">
         <f aca="false">VLOOKUP(A61,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>104</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>3</v>
@@ -2353,14 +2329,14 @@
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B62" s="1" t="n">
         <f aca="false">VLOOKUP(A62,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>104</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>57</v>
@@ -2375,7 +2351,7 @@
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B63" s="1" t="n">
         <f aca="false">VLOOKUP(A63,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -2397,14 +2373,14 @@
     </row>
     <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="1" t="n">
         <f aca="false">VLOOKUP(A64,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>106</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>31</v>
@@ -2422,14 +2398,14 @@
     </row>
     <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="1" t="n">
         <f aca="false">VLOOKUP(A65,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>107</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>47</v>
@@ -2440,19 +2416,19 @@
       <c r="F65" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H65" s="6"/>
+      <c r="H65" s="4"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" s="1" t="n">
         <f aca="false">VLOOKUP(A66,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>107</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>9</v>
@@ -2464,13 +2440,13 @@
     </row>
     <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>41</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>30</v>
@@ -2481,18 +2457,18 @@
       <c r="F67" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H67" s="6"/>
+      <c r="H67" s="4"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="s">
-        <v>92</v>
+      <c r="A68" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>93</v>
+      <c r="C68" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>1</v>
@@ -2504,20 +2480,20 @@
     </row>
     <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="1" t="n">
         <f aca="false">VLOOKUP(A69,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>59</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>48</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2</v>
@@ -2526,7 +2502,7 @@
     </row>
     <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="1" t="n">
         <f aca="false">VLOOKUP(A70,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -2541,19 +2517,19 @@
       <c r="F70" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H70" s="6"/>
+      <c r="H70" s="4"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B71" s="1" t="n">
         <f aca="false">VLOOKUP(A71,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>59</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>71</v>
@@ -2565,14 +2541,14 @@
     </row>
     <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" s="1" t="n">
         <f aca="false">VLOOKUP(A72,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>59</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>38</v>
@@ -2580,17 +2556,17 @@
       <c r="F72" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H72" s="6"/>
+      <c r="H72" s="4"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="s">
-        <v>96</v>
+      <c r="A73" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="0" t="n">
@@ -2602,14 +2578,14 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="s">
-        <v>97</v>
+      <c r="A74" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>98</v>
+      <c r="C74" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>6</v>
@@ -2617,17 +2593,17 @@
       <c r="F74" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H74" s="6"/>
+      <c r="H74" s="4"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="s">
-        <v>97</v>
+      <c r="A75" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="0" t="n">
@@ -2640,13 +2616,13 @@
     </row>
     <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>3</v>
@@ -2657,18 +2633,18 @@
       <c r="F76" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H76" s="6"/>
+      <c r="H76" s="4"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6" t="s">
-        <v>99</v>
+      <c r="A77" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>98</v>
+      <c r="C77" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>6</v>
@@ -2676,17 +2652,17 @@
       <c r="F77" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H77" s="6"/>
+      <c r="H77" s="4"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6" t="s">
-        <v>99</v>
+      <c r="A78" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="0" t="n">
@@ -2695,12 +2671,12 @@
       <c r="F78" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H78" s="6"/>
+      <c r="H78" s="4"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="1" t="n">
         <f aca="false">VLOOKUP(A79,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -2722,14 +2698,14 @@
     </row>
     <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B80" s="1" t="n">
         <f aca="false">VLOOKUP(A80,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>109</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>72</v>
@@ -2741,14 +2717,14 @@
     </row>
     <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" s="1" t="n">
         <f aca="false">VLOOKUP(A81,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>111</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>54</v>
@@ -2766,14 +2742,14 @@
     </row>
     <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" s="1" t="n">
         <f aca="false">VLOOKUP(A82,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>111</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>30</v>
@@ -2784,14 +2760,14 @@
       <c r="I82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6" t="s">
-        <v>104</v>
+      <c r="A83" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>37</v>
+      <c r="C83" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>3</v>
@@ -2799,18 +2775,18 @@
       <c r="F83" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H83" s="6"/>
+      <c r="H83" s="4"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>43</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>19</v>
@@ -2825,13 +2801,13 @@
     </row>
     <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>43</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>30</v>
@@ -2842,18 +2818,18 @@
       <c r="F85" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H85" s="6"/>
+      <c r="H85" s="4"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6" t="s">
-        <v>106</v>
+      <c r="A86" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>41</v>
+      <c r="C86" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>39</v>
@@ -2865,13 +2841,13 @@
     </row>
     <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>32</v>
@@ -2882,18 +2858,18 @@
       <c r="F87" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H87" s="6"/>
+      <c r="H87" s="4"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>30</v>
@@ -2907,14 +2883,14 @@
     </row>
     <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="1" t="n">
         <f aca="false">VLOOKUP(A89,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>112</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>48</v>
@@ -2928,7 +2904,7 @@
     </row>
     <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="1" t="n">
         <f aca="false">VLOOKUP(A90,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -2945,13 +2921,13 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6" t="s">
-        <v>110</v>
+      <c r="A91" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="0" t="n">
@@ -2963,14 +2939,14 @@
     </row>
     <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="1" t="n">
         <f aca="false">VLOOKUP(A92,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>113</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>39</v>
@@ -2984,7 +2960,7 @@
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="1" t="n">
         <f aca="false">VLOOKUP(A93,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -3000,12 +2976,12 @@
         <v>3</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B94" s="1" t="n">
         <f aca="false">VLOOKUP(A94,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -3026,14 +3002,14 @@
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" s="1" t="n">
         <f aca="false">VLOOKUP(A95,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>114</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>73</v>
@@ -3046,13 +3022,13 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6" t="s">
-        <v>115</v>
+      <c r="A96" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="0" t="n">
@@ -3064,7 +3040,7 @@
     </row>
     <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>42</v>
@@ -3084,13 +3060,13 @@
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>42</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>30</v>
@@ -3104,13 +3080,13 @@
     </row>
     <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>42</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>10</v>
@@ -3123,13 +3099,13 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6" t="s">
-        <v>117</v>
+      <c r="A100" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="0" t="n">
@@ -3141,7 +3117,7 @@
     </row>
     <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>12</v>
@@ -3160,14 +3136,14 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="s">
-        <v>119</v>
+      <c r="A102" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>43</v>
+      <c r="C102" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D102" s="0" t="n">
         <v>40</v>
@@ -3178,7 +3154,7 @@
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B103" s="1" t="n">
         <f aca="false">VLOOKUP(A103,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -3199,14 +3175,14 @@
     </row>
     <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B104" s="1" t="n">
         <f aca="false">VLOOKUP(A104,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>115</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>74</v>
@@ -3216,13 +3192,13 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6" t="s">
-        <v>122</v>
+      <c r="A105" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="0" t="n">
@@ -3233,14 +3209,14 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6" t="s">
-        <v>123</v>
+      <c r="A106" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>108</v>
+      <c r="C106" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>32</v>
@@ -3251,14 +3227,14 @@
     </row>
     <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B107" s="1" t="n">
         <f aca="false">VLOOKUP(A107,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>116</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>11</v>
@@ -3272,14 +3248,14 @@
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B108" s="1" t="n">
         <f aca="false">VLOOKUP(A108,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>116</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D108" s="0" t="n">
         <v>75</v>
@@ -3290,14 +3266,14 @@
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B109" s="1" t="n">
         <f aca="false">VLOOKUP(A109,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>117</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>15</v>
@@ -3311,14 +3287,14 @@
     </row>
     <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B110" s="1" t="n">
         <f aca="false">VLOOKUP(A110,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>117</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>49</v>
@@ -3332,14 +3308,14 @@
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B111" s="1" t="n">
         <f aca="false">VLOOKUP(A111,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>117</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>41</v>
@@ -3349,14 +3325,14 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="6" t="s">
-        <v>128</v>
+      <c r="A112" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>67</v>
+      <c r="C112" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>41</v>
@@ -3367,13 +3343,13 @@
     </row>
     <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>98</v>
+      <c r="C113" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>6</v>
@@ -3384,12 +3360,12 @@
     </row>
     <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="0" t="n">
@@ -3400,13 +3376,13 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6" t="s">
-        <v>130</v>
+      <c r="A115" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="0" t="n">
@@ -3418,7 +3394,7 @@
     </row>
     <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>13</v>
@@ -3438,13 +3414,13 @@
     </row>
     <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>51</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>3</v>
@@ -3458,13 +3434,13 @@
     </row>
     <row r="118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>51</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D118" s="0" t="n">
         <v>30</v>
@@ -3478,7 +3454,7 @@
     </row>
     <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>51</v>
@@ -3498,7 +3474,7 @@
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>14</v>
@@ -3517,14 +3493,14 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="6" t="s">
-        <v>134</v>
+      <c r="A121" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>24</v>
+      <c r="C121" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>10</v>
@@ -3533,18 +3509,18 @@
         <v>1</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="6" t="s">
-        <v>136</v>
+      <c r="A122" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>82</v>
+      <c r="C122" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>15</v>
@@ -3555,7 +3531,7 @@
     </row>
     <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>46</v>
@@ -3575,13 +3551,13 @@
     </row>
     <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>20</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>34</v>
@@ -3595,13 +3571,13 @@
     </row>
     <row r="125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>20</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>33</v>
@@ -3615,13 +3591,13 @@
     </row>
     <row r="126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>47</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>31</v>
@@ -3635,7 +3611,7 @@
     </row>
     <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>47</v>
@@ -3655,7 +3631,7 @@
     </row>
     <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B128" s="1" t="n">
         <f aca="false">VLOOKUP(A128,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -3676,14 +3652,14 @@
     </row>
     <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B129" s="1" t="n">
         <f aca="false">VLOOKUP(A129,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>120</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>50</v>
@@ -3695,12 +3671,12 @@
         <v>1</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B130" s="1" t="n">
         <f aca="false">VLOOKUP(A130,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -3718,13 +3694,13 @@
     </row>
     <row r="131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>28</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>9</v>
@@ -3738,14 +3714,14 @@
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B132" s="1" t="n">
         <f aca="false">VLOOKUP(A132,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>121</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>31</v>
@@ -3759,7 +3735,7 @@
     </row>
     <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B133" s="1" t="n">
         <f aca="false">VLOOKUP(A133,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -3777,14 +3753,14 @@
     </row>
     <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B134" s="1" t="n">
         <f aca="false">VLOOKUP(A134,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>121</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>3</v>
@@ -3795,13 +3771,13 @@
     </row>
     <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D135" s="0" t="n">
         <v>6</v>
@@ -3815,13 +3791,13 @@
     </row>
     <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D136" s="0" t="n">
         <v>7</v>
@@ -3835,7 +3811,7 @@
     </row>
     <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>3</v>
@@ -3854,14 +3830,14 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="6" t="s">
-        <v>149</v>
+      <c r="A138" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>150</v>
+      <c r="C138" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="D138" s="0" t="n">
         <v>36</v>
@@ -3871,14 +3847,14 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6" t="s">
-        <v>149</v>
+      <c r="A139" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>23</v>
+      <c r="C139" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D139" s="0" t="n">
         <v>43</v>
@@ -3888,14 +3864,14 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6" t="s">
-        <v>149</v>
+      <c r="A140" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>151</v>
+      <c r="C140" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>44</v>
@@ -3906,14 +3882,14 @@
     </row>
     <row r="141" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B141" s="1" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>1</v>
@@ -3928,20 +3904,20 @@
     </row>
     <row r="142" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B142" s="1" t="n">
         <f aca="false">1</f>
         <v>1</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>33</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F142" s="0" t="n">
         <v>2</v>
@@ -3950,7 +3926,7 @@
     </row>
     <row r="143" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B143" s="1" t="n">
         <f aca="false">1</f>
@@ -3971,16 +3947,16 @@
       <c r="G143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6" t="s">
-        <v>153</v>
+      <c r="A144" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="C144" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D144" s="6" t="n">
+      <c r="D144" s="4" t="n">
         <v>2</v>
       </c>
       <c r="F144" s="0" t="n">
@@ -3989,7 +3965,7 @@
     </row>
     <row r="145" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>48</v>
@@ -4008,13 +3984,13 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6" t="s">
-        <v>155</v>
+      <c r="A146" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="0" t="n">
@@ -4024,19 +4000,19 @@
         <v>1</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B147" s="1" t="n">
         <f aca="false">VLOOKUP(A147,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>122</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>20</v>
@@ -4050,14 +4026,14 @@
     </row>
     <row r="148" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B148" s="1" t="n">
         <f aca="false">VLOOKUP(A148,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>122</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>36</v>
@@ -4071,14 +4047,14 @@
     </row>
     <row r="149" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B149" s="1" t="n">
         <f aca="false">VLOOKUP(A149,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>122</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>51</v>
@@ -4090,12 +4066,12 @@
         <v>1</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>49</v>
@@ -4114,14 +4090,14 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="7" t="s">
-        <v>161</v>
+      <c r="A151" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C151" s="7" t="s">
-        <v>62</v>
+      <c r="C151" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>30</v>
@@ -4135,14 +4111,14 @@
     </row>
     <row r="152" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B152" s="1" t="n">
         <f aca="false">VLOOKUP(A152,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>123</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>52</v>
@@ -4156,7 +4132,7 @@
     </row>
     <row r="153" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>15</v>
@@ -4176,7 +4152,7 @@
     </row>
     <row r="154" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>16</v>
@@ -4196,7 +4172,7 @@
     </row>
     <row r="155" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>29</v>
@@ -4215,30 +4191,30 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="6" t="s">
-        <v>167</v>
+      <c r="A156" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="C156" s="6"/>
+      <c r="C156" s="4"/>
       <c r="F156" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B157" s="1" t="n">
         <f aca="false">VLOOKUP(A157,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>124</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>53</v>
@@ -4252,7 +4228,7 @@
     </row>
     <row r="158" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>17</v>
@@ -4271,13 +4247,13 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="6" t="s">
-        <v>172</v>
+      <c r="A159" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="0" t="n">
@@ -4289,14 +4265,14 @@
     </row>
     <row r="160" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B160" s="1" t="n">
         <f aca="false">VLOOKUP(A160,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>126</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>17</v>
@@ -4310,14 +4286,14 @@
     </row>
     <row r="161" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B161" s="1" t="n">
         <f aca="false">VLOOKUP(A161,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>126</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>76</v>
@@ -4326,18 +4302,18 @@
         <v>3</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>24</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>35</v>
@@ -4351,19 +4327,19 @@
     </row>
     <row r="163" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>24</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F163" s="0" t="n">
         <v>2</v>
@@ -4371,7 +4347,7 @@
     </row>
     <row r="164" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>24</v>
@@ -4391,13 +4367,13 @@
     </row>
     <row r="165" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>24</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>18</v>
@@ -4411,13 +4387,13 @@
     </row>
     <row r="166" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>24</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>19</v>
@@ -4431,13 +4407,13 @@
     </row>
     <row r="167" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>24</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>20</v>
@@ -4451,13 +4427,13 @@
     </row>
     <row r="168" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>25</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>21</v>
@@ -4471,14 +4447,14 @@
     </row>
     <row r="169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B169" s="1" t="n">
         <f aca="false">VLOOKUP(A169,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>127</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>9</v>
@@ -4492,7 +4468,7 @@
     </row>
     <row r="170" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>5</v>
@@ -4512,7 +4488,7 @@
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>5</v>
@@ -4531,14 +4507,14 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="6" t="s">
-        <v>183</v>
+      <c r="A172" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="C172" s="6" t="s">
-        <v>37</v>
+      <c r="C172" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>3</v>
@@ -4549,13 +4525,13 @@
     </row>
     <row r="173" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>26</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>22</v>
@@ -4569,7 +4545,7 @@
     </row>
     <row r="174" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>26</v>
@@ -4589,14 +4565,14 @@
     </row>
     <row r="175" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B175" s="1" t="n">
         <f aca="false">VLOOKUP(A175,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>128</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>20</v>
@@ -4610,14 +4586,14 @@
     </row>
     <row r="176" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B176" s="1" t="n">
         <f aca="false">VLOOKUP(A176,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>129</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>55</v>
@@ -4631,7 +4607,7 @@
     </row>
     <row r="177" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B177" s="1" t="n">
         <f aca="false">VLOOKUP(A177,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -4648,14 +4624,14 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="6" t="s">
-        <v>189</v>
+      <c r="A178" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="C178" s="6" t="s">
-        <v>57</v>
+      <c r="C178" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>13</v>
@@ -4666,13 +4642,13 @@
     </row>
     <row r="179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>3</v>
@@ -4686,13 +4662,13 @@
     </row>
     <row r="180" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>4</v>
@@ -4706,7 +4682,7 @@
     </row>
     <row r="181" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>2</v>
@@ -4726,7 +4702,7 @@
     </row>
     <row r="182" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>2</v>
@@ -4746,14 +4722,14 @@
     </row>
     <row r="183" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B183" s="1" t="n">
         <f aca="false">VLOOKUP(A183,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>131</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>38</v>
@@ -4767,14 +4743,14 @@
     </row>
     <row r="184" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B184" s="1" t="n">
         <f aca="false">VLOOKUP(A184,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>131</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>30</v>
@@ -4785,14 +4761,14 @@
     </row>
     <row r="185" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B185" s="1" t="n">
         <f aca="false">VLOOKUP(A185,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>131</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>10</v>
@@ -4803,14 +4779,14 @@
     </row>
     <row r="186" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B186" s="1" t="n">
         <f aca="false">VLOOKUP(A186,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>131</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>54</v>
@@ -4824,7 +4800,7 @@
     </row>
     <row r="187" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B187" s="1" t="n">
         <f aca="false">VLOOKUP(A187,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -4845,14 +4821,14 @@
     </row>
     <row r="188" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B188" s="1" t="n">
         <f aca="false">VLOOKUP(A188,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>132</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>56</v>
@@ -4866,20 +4842,20 @@
     </row>
     <row r="189" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B189" s="1" t="n">
         <f aca="false">VLOOKUP(A189,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>132</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>21</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F189" s="0" t="n">
         <v>2</v>
@@ -4887,14 +4863,14 @@
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B190" s="1" t="n">
         <f aca="false">VLOOKUP(A190,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>132</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>68</v>
@@ -4908,14 +4884,14 @@
     </row>
     <row r="191" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B191" s="1" t="n">
         <f aca="false">VLOOKUP(A191,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>133</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>42</v>
@@ -4929,14 +4905,14 @@
     </row>
     <row r="192" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B192" s="1" t="n">
         <f aca="false">VLOOKUP(A192,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>134</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>41</v>
@@ -4950,14 +4926,14 @@
     </row>
     <row r="193" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B193" s="1" t="n">
         <f aca="false">VLOOKUP(A193,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>134</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>77</v>
@@ -4968,14 +4944,14 @@
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B194" s="1" t="n">
         <f aca="false">VLOOKUP(A194,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>135</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>46</v>
@@ -4989,7 +4965,7 @@
     </row>
     <row r="195" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B195" s="1" t="n">
         <f aca="false">VLOOKUP(A195,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -5007,14 +4983,14 @@
     </row>
     <row r="196" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B196" s="1" t="n">
         <f aca="false">VLOOKUP(A196,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>135</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>18</v>
@@ -5025,14 +5001,14 @@
     </row>
     <row r="197" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B197" s="1" t="n">
         <f aca="false">VLOOKUP(A197,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>135</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>10</v>
@@ -5043,14 +5019,14 @@
     </row>
     <row r="198" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B198" s="1" t="n">
         <f aca="false">VLOOKUP(A198,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>135</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>78</v>
@@ -5061,14 +5037,14 @@
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B199" s="1" t="n">
         <f aca="false">VLOOKUP(A199,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>135</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>79</v>
@@ -5079,14 +5055,14 @@
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B200" s="1" t="n">
         <f aca="false">VLOOKUP(A200,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>135</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>80</v>
@@ -5097,14 +5073,14 @@
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B201" s="1" t="n">
         <f aca="false">VLOOKUP(A201,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>135</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>81</v>
@@ -5114,14 +5090,14 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="6" t="s">
-        <v>203</v>
+      <c r="A202" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="C202" s="6" t="s">
-        <v>31</v>
+      <c r="C202" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>42</v>
@@ -5132,7 +5108,7 @@
     </row>
     <row r="203" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B203" s="1" t="n">
         <f aca="false">VLOOKUP(A203,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -5153,20 +5129,20 @@
     </row>
     <row r="204" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B204" s="1" t="n">
         <f aca="false">VLOOKUP(A204,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>136</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>63</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F204" s="0" t="n">
         <v>2</v>
@@ -5174,14 +5150,14 @@
     </row>
     <row r="205" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B205" s="1" t="n">
         <f aca="false">VLOOKUP(A205,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>136</v>
       </c>
-      <c r="C205" s="8" t="s">
-        <v>206</v>
+      <c r="C205" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>26</v>
@@ -5192,13 +5168,13 @@
     </row>
     <row r="206" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>136</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>63</v>
@@ -5209,7 +5185,7 @@
     </row>
     <row r="207" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B207" s="1" t="n">
         <f aca="false">VLOOKUP(A207,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -5230,14 +5206,14 @@
     </row>
     <row r="208" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B208" s="1" t="n">
         <f aca="false">VLOOKUP(A208,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>137</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>82</v>
@@ -5247,13 +5223,13 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="6" t="s">
-        <v>209</v>
+      <c r="A209" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="C209" s="6" t="s">
+      <c r="C209" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="0" t="n">
@@ -5264,14 +5240,14 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="6" t="s">
-        <v>210</v>
+      <c r="A210" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="C210" s="6" t="s">
-        <v>67</v>
+      <c r="C210" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>41</v>
@@ -5282,14 +5258,14 @@
     </row>
     <row r="211" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B211" s="1" t="n">
         <f aca="false">VLOOKUP(A211,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>138</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>23</v>
@@ -5303,14 +5279,14 @@
     </row>
     <row r="212" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B212" s="1" t="n">
         <f aca="false">VLOOKUP(A212,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>138</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>58</v>
@@ -5324,20 +5300,20 @@
     </row>
     <row r="213" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B213" s="1" t="n">
         <f aca="false">VLOOKUP(A213,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>138</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>64</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F213" s="0" t="n">
         <v>2</v>
@@ -5345,14 +5321,14 @@
     </row>
     <row r="214" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B214" s="1" t="n">
         <f aca="false">VLOOKUP(A214,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>138</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>83</v>
@@ -5363,14 +5339,14 @@
     </row>
     <row r="215" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B215" s="1" t="n">
         <f aca="false">VLOOKUP(A215,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>138</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>84</v>
@@ -5381,14 +5357,14 @@
     </row>
     <row r="216" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B216" s="1" t="n">
         <f aca="false">VLOOKUP(A216,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>139</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>17</v>
@@ -5402,7 +5378,7 @@
     </row>
     <row r="217" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B217" s="1" t="n">
         <f aca="false">VLOOKUP(A217,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -5418,18 +5394,18 @@
         <v>3</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="6" t="s">
-        <v>219</v>
+      <c r="A218" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="C218" s="6" t="s">
-        <v>95</v>
+      <c r="C218" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>38</v>
@@ -5440,13 +5416,13 @@
     </row>
     <row r="219" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>12</v>
@@ -5460,7 +5436,7 @@
     </row>
     <row r="220" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>7</v>
@@ -5480,13 +5456,13 @@
     </row>
     <row r="221" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>13</v>
@@ -5500,13 +5476,13 @@
     </row>
     <row r="222" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>14</v>
@@ -5520,13 +5496,13 @@
     </row>
     <row r="223" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>15</v>
@@ -5540,13 +5516,13 @@
     </row>
     <row r="224" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>22</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>17</v>
@@ -5560,14 +5536,14 @@
     </row>
     <row r="225" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B225" s="1" t="n">
         <f aca="false">VLOOKUP(A225,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>141</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>9</v>
@@ -5576,19 +5552,19 @@
         <v>1</v>
       </c>
       <c r="G225" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B226" s="1" t="n">
         <f aca="false">VLOOKUP(A226,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>141</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>59</v>
@@ -5602,14 +5578,14 @@
     </row>
     <row r="227" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B227" s="1" t="n">
         <f aca="false">VLOOKUP(A227,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>141</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>10</v>
@@ -5620,14 +5596,14 @@
     </row>
     <row r="228" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B228" s="1" t="n">
         <f aca="false">VLOOKUP(A228,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>142</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>60</v>
@@ -5641,14 +5617,14 @@
     </row>
     <row r="229" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B229" s="1" t="n">
         <f aca="false">VLOOKUP(A229,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>142</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>10</v>
@@ -5659,14 +5635,14 @@
     </row>
     <row r="230" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B230" s="1" t="n">
         <f aca="false">VLOOKUP(A230,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>142</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>38</v>
@@ -5677,14 +5653,14 @@
     </row>
     <row r="231" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B231" s="1" t="n">
         <f aca="false">VLOOKUP(A231,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>142</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>54</v>
@@ -5697,14 +5673,14 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="6" t="s">
-        <v>230</v>
+      <c r="A232" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="C232" s="6" t="s">
-        <v>222</v>
+      <c r="C232" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>14</v>
@@ -5715,14 +5691,14 @@
     </row>
     <row r="233" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B233" s="1" t="n">
         <f aca="false">VLOOKUP(A233,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>143</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>17</v>
@@ -5734,18 +5710,18 @@
         <v>1</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>45</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D234" s="0" t="n">
         <v>3</v>
@@ -5759,13 +5735,13 @@
     </row>
     <row r="235" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>45</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D235" s="0" t="n">
         <v>30</v>
@@ -5779,14 +5755,14 @@
     </row>
     <row r="236" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B236" s="1" t="n">
         <f aca="false">VLOOKUP(A236,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>144</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D236" s="0" t="n">
         <v>61</v>
@@ -5800,14 +5776,14 @@
     </row>
     <row r="237" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B237" s="1" t="n">
         <f aca="false">VLOOKUP(A237,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>144</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D237" s="0" t="n">
         <v>85</v>
@@ -5821,13 +5797,13 @@
     </row>
     <row r="238" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D238" s="0" t="n">
         <v>9</v>
@@ -5841,19 +5817,19 @@
     </row>
     <row r="239" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D239" s="0" t="n">
         <v>33</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F239" s="0" t="n">
         <v>2</v>
@@ -5861,7 +5837,7 @@
     </row>
     <row r="240" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>6</v>
@@ -5881,13 +5857,13 @@
     </row>
     <row r="241" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D241" s="0" t="n">
         <v>10</v>
@@ -5901,13 +5877,13 @@
     </row>
     <row r="242" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D242" s="0" t="n">
         <v>11</v>
@@ -5921,14 +5897,14 @@
     </row>
     <row r="243" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B243" s="1" t="n">
         <f aca="false">VLOOKUP(A243,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>146</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D243" s="0" t="n">
         <v>4</v>
@@ -5942,14 +5918,14 @@
     </row>
     <row r="244" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B244" s="1" t="n">
         <f aca="false">VLOOKUP(A244,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>145</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D244" s="0" t="n">
         <v>10</v>
@@ -5963,14 +5939,14 @@
     </row>
     <row r="245" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B245" s="1" t="n">
         <f aca="false">VLOOKUP(A245,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>145</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D245" s="0" t="n">
         <v>9</v>
@@ -5984,7 +5960,7 @@
     </row>
     <row r="246" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B246" s="1" t="n">
         <f aca="false">VLOOKUP(A246,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -6005,14 +5981,14 @@
     </row>
     <row r="247" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B247" s="1" t="n">
         <f aca="false">VLOOKUP(A247,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>145</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D247" s="0" t="n">
         <v>49</v>
@@ -6021,19 +5997,19 @@
         <v>3</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B248" s="1" t="n">
         <f aca="false">VLOOKUP(A248,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>145</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D248" s="0" t="n">
         <v>10</v>
@@ -6044,7 +6020,7 @@
     </row>
     <row r="249" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B249" s="1" t="n">
         <f aca="false">VLOOKUP(A249,'poets lookup'!$A$1:$B$137,2,0)</f>
@@ -6068,14 +6044,14 @@
     </row>
     <row r="250" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B250" s="1" t="n">
         <f aca="false">VLOOKUP(A250,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>148</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D250" s="0" t="n">
         <v>49</v>
@@ -6084,19 +6060,19 @@
         <v>3</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B251" s="1" t="n">
         <f aca="false">VLOOKUP(A251,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>148</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D251" s="0" t="n">
         <v>64</v>
@@ -6107,13 +6083,13 @@
     </row>
     <row r="252" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>148</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D252" s="0" t="n">
         <v>20</v>
@@ -6127,14 +6103,14 @@
     </row>
     <row r="253" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B253" s="1" t="n">
         <f aca="false">VLOOKUP(A253,'poets lookup'!$A$1:$B$137,2,0)</f>
         <v>114</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D253" s="0" t="n">
         <v>33</v>
@@ -6145,13 +6121,13 @@
     </row>
     <row r="254" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>149</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D254" s="0" t="n">
         <v>86</v>
@@ -6162,13 +6138,13 @@
     </row>
     <row r="255" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>149</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D255" s="0" t="n">
         <v>38</v>
@@ -6179,13 +6155,13 @@
     </row>
     <row r="256" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>149</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D256" s="0" t="n">
         <v>3</v>
@@ -6196,7 +6172,7 @@
     </row>
     <row r="257" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>149</v>
@@ -6213,13 +6189,13 @@
     </row>
     <row r="258" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>149</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D258" s="0" t="n">
         <v>87</v>
@@ -6246,7 +6222,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6257,18 +6233,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>30</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>23</v>
@@ -6282,7 +6258,7 @@
     </row>
     <row r="4" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>30</v>
@@ -6302,13 +6278,13 @@
     </row>
     <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>30</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>24</v>
@@ -6322,13 +6298,13 @@
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>25</v>
@@ -6342,19 +6318,19 @@
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2</v>
@@ -6362,7 +6338,7 @@
     </row>
     <row r="8" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>31</v>
@@ -6398,7 +6374,7 @@
   </sheetPr>
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6408,321 +6384,321 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="9" t="n">
+      <c r="A1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="6" t="n">
         <f aca="false">B1+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="9" t="n">
+      <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <f aca="false">B2+1</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="9" t="n">
+      <c r="A4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="6" t="n">
         <f aca="false">B3+1</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="6" t="n">
         <f aca="false">B4+1</f>
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="9" t="n">
+      <c r="A6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="6" t="n">
         <f aca="false">B5+1</f>
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="9" t="n">
+      <c r="A7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="6" t="n">
         <f aca="false">B6+1</f>
         <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="6" t="n">
         <f aca="false">B7+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="9" t="n">
+      <c r="A9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="6" t="n">
         <f aca="false">B8+1</f>
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="9" t="n">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="n">
         <f aca="false">B9+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="9" t="n">
+      <c r="A11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="6" t="n">
         <f aca="false">B10+1</f>
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B12" s="9" t="n">
+      <c r="A12" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="6" t="n">
         <f aca="false">B11+1</f>
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="9" t="n">
+      <c r="A13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="6" t="n">
         <f aca="false">B12+1</f>
         <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="9" t="n">
+      <c r="A14" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="6" t="n">
         <f aca="false">B13+1</f>
         <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="9" t="n">
+      <c r="A15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="6" t="n">
         <f aca="false">B14+1</f>
         <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="9" t="n">
+      <c r="A16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="6" t="n">
         <f aca="false">B15+1</f>
         <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="9" t="n">
+      <c r="A17" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="6" t="n">
         <f aca="false">B16+1</f>
         <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="9" t="n">
+      <c r="A18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="6" t="n">
         <f aca="false">B17+1</f>
         <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="9" t="n">
+      <c r="A19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6" t="n">
         <f aca="false">B18+1</f>
         <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="9" t="n">
+      <c r="A20" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="6" t="n">
         <f aca="false">B19+1</f>
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="9" t="n">
+      <c r="A21" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="6" t="n">
         <f aca="false">B20+1</f>
         <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B22" s="9" t="n">
+      <c r="A22" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="6" t="n">
         <f aca="false">B21+1</f>
         <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B23" s="9" t="n">
+      <c r="A23" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="6" t="n">
         <f aca="false">B22+1</f>
         <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B24" s="9" t="n">
+      <c r="A24" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="6" t="n">
         <f aca="false">B23+1</f>
         <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B25" s="9" t="n">
+      <c r="A25" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="6" t="n">
         <f aca="false">B24+1</f>
         <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B26" s="9" t="n">
+      <c r="A26" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="6" t="n">
         <f aca="false">B25+1</f>
         <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="9" t="n">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="n">
         <f aca="false">B26+1</f>
         <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="9" t="n">
+      <c r="A28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="n">
         <f aca="false">B27+1</f>
         <v>28</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="9" t="n">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="n">
         <f aca="false">B28+1</f>
         <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="9" t="n">
+      <c r="A30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="6" t="n">
         <f aca="false">B29+1</f>
         <v>30</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="9" t="n">
+      <c r="A31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="6" t="n">
         <f aca="false">B30+1</f>
         <v>31</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="9" t="n">
+      <c r="A32" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="6" t="n">
         <f aca="false">B31+1</f>
         <v>32</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="9" t="n">
+      <c r="A33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="6" t="n">
         <f aca="false">B32+1</f>
         <v>33</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="9" t="n">
+      <c r="A34" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="6" t="n">
         <f aca="false">B33+1</f>
         <v>34</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B35" s="9" t="n">
+      <c r="A35" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="6" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>36</v>
@@ -6730,7 +6706,7 @@
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>38</v>
@@ -6738,7 +6714,7 @@
     </row>
     <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>39</v>
@@ -6746,7 +6722,7 @@
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>40</v>
@@ -6754,7 +6730,7 @@
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>41</v>
@@ -6762,7 +6738,7 @@
     </row>
     <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>42</v>
@@ -6770,7 +6746,7 @@
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43</v>
@@ -6778,369 +6754,369 @@
     </row>
     <row r="43" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="6" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="6" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="6" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B44" s="9" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="6" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="6" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="6" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="6" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" s="6" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B60" s="6" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="6" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B62" s="6" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="6" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="6" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="6" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="B45" s="9" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="9" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="9" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="6" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="6" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="6" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="6" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="9" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B50" s="9" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" s="9" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B52" s="9" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="9" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B54" s="9" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B55" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
+      <c r="B73" s="6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" s="6" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" s="6" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" s="6" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" s="6" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" s="6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B79" s="6" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B80" s="6" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B81" s="6" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="B56" s="9" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B57" s="9" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B58" s="9" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B59" s="9" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B60" s="9" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B61" s="9" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B62" s="9" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="9" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" s="9" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" s="9" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66" s="9" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="9" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="9" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="9" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B70" s="9" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B71" s="9" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" s="9" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" s="9" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B74" s="9" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B75" s="9" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B76" s="9" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B77" s="9" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B78" s="9" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B79" s="9" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B80" s="9" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B81" s="9" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B82" s="9" t="n">
-        <v>84</v>
-      </c>
     </row>
     <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B83" s="9" t="n">
+      <c r="A83" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B83" s="6" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="B84" s="9" t="n">
+        <v>248</v>
+      </c>
+      <c r="B84" s="6" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="B85" s="9" t="n">
+        <v>249</v>
+      </c>
+      <c r="B85" s="6" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B86" s="9" t="n">
+      <c r="A86" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" s="6" t="n">
         <v>88</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B87" s="9" t="n">
+      <c r="A87" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87" s="6" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B88" s="9" t="n">
+      <c r="B88" s="6" t="n">
         <v>90</v>
       </c>
     </row>
@@ -7162,7 +7138,7 @@
   </sheetPr>
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7197,7 +7173,7 @@
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>36</v>
@@ -7205,7 +7181,7 @@
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>35</v>
@@ -7213,7 +7189,7 @@
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>94</v>
@@ -7221,7 +7197,7 @@
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>95</v>
@@ -7229,7 +7205,7 @@
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>8</v>
@@ -7237,7 +7213,7 @@
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>96</v>
@@ -7245,7 +7221,7 @@
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>56</v>
@@ -7253,7 +7229,7 @@
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>97</v>
@@ -7261,7 +7237,7 @@
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>37</v>
@@ -7269,7 +7245,7 @@
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>98</v>
@@ -7277,7 +7253,7 @@
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>39</v>
@@ -7285,7 +7261,7 @@
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>23</v>
@@ -7293,7 +7269,7 @@
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>9</v>
@@ -7301,7 +7277,7 @@
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>57</v>
@@ -7309,7 +7285,7 @@
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>38</v>
@@ -7317,7 +7293,7 @@
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>10</v>
@@ -7325,7 +7301,7 @@
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>19</v>
@@ -7333,7 +7309,7 @@
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>99</v>
@@ -7341,7 +7317,7 @@
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>100</v>
@@ -7349,7 +7325,7 @@
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>11</v>
@@ -7357,7 +7333,7 @@
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>101</v>
@@ -7365,7 +7341,7 @@
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>33</v>
@@ -7373,7 +7349,7 @@
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>102</v>
@@ -7381,7 +7357,7 @@
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>58</v>
@@ -7389,7 +7365,7 @@
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>103</v>
@@ -7397,7 +7373,7 @@
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>4</v>
@@ -7405,7 +7381,7 @@
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>27</v>
@@ -7413,7 +7389,7 @@
     </row>
     <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>104</v>
@@ -7421,7 +7397,7 @@
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>105</v>
@@ -7429,7 +7405,7 @@
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>106</v>
@@ -7437,7 +7413,7 @@
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>107</v>
@@ -7445,7 +7421,7 @@
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>41</v>
@@ -7453,7 +7429,7 @@
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>59</v>
@@ -7461,7 +7437,7 @@
     </row>
     <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>60</v>
@@ -7469,7 +7445,7 @@
     </row>
     <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>61</v>
@@ -7477,7 +7453,7 @@
     </row>
     <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>109</v>
@@ -7485,7 +7461,7 @@
     </row>
     <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>62</v>
@@ -7493,7 +7469,7 @@
     </row>
     <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>21</v>
@@ -7501,7 +7477,7 @@
     </row>
     <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>63</v>
@@ -7509,7 +7485,7 @@
     </row>
     <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>111</v>
@@ -7517,7 +7493,7 @@
     </row>
     <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>64</v>
@@ -7525,7 +7501,7 @@
     </row>
     <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43</v>
@@ -7533,7 +7509,7 @@
     </row>
     <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>65</v>
@@ -7541,7 +7517,7 @@
     </row>
     <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>44</v>
@@ -7549,7 +7525,7 @@
     </row>
     <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>112</v>
@@ -7557,7 +7533,7 @@
     </row>
     <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>66</v>
@@ -7565,7 +7541,7 @@
     </row>
     <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>113</v>
@@ -7573,7 +7549,7 @@
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>114</v>
@@ -7581,7 +7557,7 @@
     </row>
     <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>67</v>
@@ -7589,7 +7565,7 @@
     </row>
     <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>42</v>
@@ -7597,7 +7573,7 @@
     </row>
     <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>68</v>
@@ -7605,7 +7581,7 @@
     </row>
     <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>12</v>
@@ -7613,7 +7589,7 @@
     </row>
     <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>69</v>
@@ -7621,7 +7597,7 @@
     </row>
     <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>115</v>
@@ -7629,7 +7605,7 @@
     </row>
     <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>70</v>
@@ -7637,7 +7613,7 @@
     </row>
     <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>71</v>
@@ -7645,7 +7621,7 @@
     </row>
     <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>116</v>
@@ -7653,7 +7629,7 @@
     </row>
     <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>117</v>
@@ -7661,7 +7637,7 @@
     </row>
     <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>118</v>
@@ -7669,7 +7645,7 @@
     </row>
     <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>55</v>
@@ -7677,7 +7653,7 @@
     </row>
     <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>72</v>
@@ -7685,7 +7661,7 @@
     </row>
     <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>73</v>
@@ -7693,7 +7669,7 @@
     </row>
     <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>74</v>
@@ -7701,7 +7677,7 @@
     </row>
     <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>13</v>
@@ -7709,7 +7685,7 @@
     </row>
     <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>51</v>
@@ -7717,7 +7693,7 @@
     </row>
     <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>14</v>
@@ -7725,7 +7701,7 @@
     </row>
     <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>75</v>
@@ -7733,7 +7709,7 @@
     </row>
     <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>76</v>
@@ -7741,7 +7717,7 @@
     </row>
     <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>46</v>
@@ -7749,7 +7725,7 @@
     </row>
     <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>20</v>
@@ -7757,7 +7733,7 @@
     </row>
     <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>47</v>
@@ -7765,7 +7741,7 @@
     </row>
     <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>119</v>
@@ -7773,7 +7749,7 @@
     </row>
     <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>120</v>
@@ -7781,7 +7757,7 @@
     </row>
     <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>28</v>
@@ -7789,7 +7765,7 @@
     </row>
     <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>121</v>
@@ -7797,7 +7773,7 @@
     </row>
     <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>77</v>
@@ -7805,7 +7781,7 @@
     </row>
     <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>3</v>
@@ -7813,7 +7789,7 @@
     </row>
     <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>52</v>
@@ -7821,15 +7797,15 @@
     </row>
     <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="s">
-        <v>153</v>
+      <c r="A83" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>91</v>
@@ -7837,7 +7813,7 @@
     </row>
     <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>48</v>
@@ -7845,7 +7821,7 @@
     </row>
     <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>53</v>
@@ -7853,7 +7829,7 @@
     </row>
     <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>122</v>
@@ -7861,7 +7837,7 @@
     </row>
     <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>49</v>
@@ -7869,7 +7845,7 @@
     </row>
     <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>123</v>
@@ -7877,7 +7853,7 @@
     </row>
     <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>15</v>
@@ -7885,7 +7861,7 @@
     </row>
     <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>16</v>
@@ -7893,7 +7869,7 @@
     </row>
     <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>29</v>
@@ -7901,7 +7877,7 @@
     </row>
     <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>78</v>
@@ -7909,7 +7885,7 @@
     </row>
     <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>124</v>
@@ -7917,15 +7893,15 @@
     </row>
     <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>125</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6" t="s">
-        <v>266</v>
+      <c r="A95" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>79</v>
@@ -7933,15 +7909,15 @@
     </row>
     <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6" t="s">
-        <v>172</v>
+      <c r="A97" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>89</v>
@@ -7949,7 +7925,7 @@
     </row>
     <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>126</v>
@@ -7957,7 +7933,7 @@
     </row>
     <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>24</v>
@@ -7965,7 +7941,7 @@
     </row>
     <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>25</v>
@@ -7973,15 +7949,15 @@
     </row>
     <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>127</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="s">
-        <v>267</v>
+      <c r="A102" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>81</v>
@@ -7989,15 +7965,15 @@
     </row>
     <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6" t="s">
-        <v>183</v>
+      <c r="A104" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>82</v>
@@ -8005,7 +7981,7 @@
     </row>
     <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>26</v>
@@ -8013,7 +7989,7 @@
     </row>
     <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>128</v>
@@ -8021,15 +7997,15 @@
     </row>
     <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>129</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6" t="s">
-        <v>189</v>
+      <c r="A108" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>83</v>
@@ -8037,7 +8013,7 @@
     </row>
     <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>2</v>
@@ -8045,7 +8021,7 @@
     </row>
     <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>131</v>
@@ -8053,7 +8029,7 @@
     </row>
     <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>132</v>
@@ -8061,7 +8037,7 @@
     </row>
     <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>133</v>
@@ -8069,7 +8045,7 @@
     </row>
     <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>134</v>
@@ -8077,15 +8053,15 @@
     </row>
     <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>135</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6" t="s">
-        <v>203</v>
+      <c r="A115" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>84</v>
@@ -8093,7 +8069,7 @@
     </row>
     <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>136</v>
@@ -8101,23 +8077,23 @@
     </row>
     <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>137</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="6" t="s">
-        <v>209</v>
+      <c r="A118" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>85</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="6" t="s">
-        <v>210</v>
+      <c r="A119" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>86</v>
@@ -8125,7 +8101,7 @@
     </row>
     <row r="120" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>138</v>
@@ -8133,7 +8109,7 @@
     </row>
     <row r="121" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>139</v>
@@ -8141,7 +8117,7 @@
     </row>
     <row r="122" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>54</v>
@@ -8149,7 +8125,7 @@
     </row>
     <row r="123" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>7</v>
@@ -8157,7 +8133,7 @@
     </row>
     <row r="124" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>22</v>
@@ -8165,7 +8141,7 @@
     </row>
     <row r="125" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>141</v>
@@ -8173,15 +8149,15 @@
     </row>
     <row r="126" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>142</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="6" t="s">
-        <v>230</v>
+      <c r="A127" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>87</v>
@@ -8189,7 +8165,7 @@
     </row>
     <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>143</v>
@@ -8197,7 +8173,7 @@
     </row>
     <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>45</v>
@@ -8205,15 +8181,15 @@
     </row>
     <row r="130" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>144</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6" t="s">
-        <v>269</v>
+      <c r="A131" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>88</v>
@@ -8221,7 +8197,7 @@
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>6</v>
@@ -8229,7 +8205,7 @@
     </row>
     <row r="133" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>146</v>
@@ -8237,7 +8213,7 @@
     </row>
     <row r="134" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>145</v>
@@ -8245,15 +8221,15 @@
     </row>
     <row r="135" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>147</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="6" t="s">
-        <v>270</v>
+      <c r="A136" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>90</v>
@@ -8261,7 +8237,7 @@
     </row>
     <row r="137" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>148</v>
